--- a/САВР/Лабораторные/lab2/Lab2_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab2/Lab2_Var№5_Кендысь.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpm.kendys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70257E8-CDCF-47E6-B301-B9998DD9A4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$H$3:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$H$3:$H$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Год</t>
   </si>
@@ -65,31 +72,67 @@
     <t>Абсол. частота</t>
   </si>
   <si>
-    <t>Ранжированный X1</t>
-  </si>
-  <si>
-    <t>Ранжированный X2</t>
-  </si>
-  <si>
-    <t>Ранжированный X3</t>
-  </si>
-  <si>
-    <t>Варианты x(i) ряда X1</t>
-  </si>
-  <si>
-    <t>Варианты x(i) ряда X2</t>
-  </si>
-  <si>
-    <t>Варианты x(i) ряда X3</t>
-  </si>
-  <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>Формула</t>
+  </si>
+  <si>
+    <t>Встр. функция</t>
+  </si>
+  <si>
+    <t>Месяц 3,
+ X3</t>
+  </si>
+  <si>
+    <t>Варианты
+x(i) ряда X1</t>
+  </si>
+  <si>
+    <t>Ранжир.
+ряд X2</t>
+  </si>
+  <si>
+    <t>Ранжир. 
+ряд X3</t>
+  </si>
+  <si>
+    <t>Среднее арифметическое</t>
+  </si>
+  <si>
+    <t>Выборочная дисперсия</t>
+  </si>
+  <si>
+    <t>Выборочная исправленная дисперсия</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение</t>
+  </si>
+  <si>
+    <t>Ранжир. 
+ряд X1</t>
+  </si>
+  <si>
+    <t>Варианты 
+x(i) ряда X2</t>
+  </si>
+  <si>
+    <t>Месяц 1, 
+X1</t>
+  </si>
+  <si>
+    <t>Месяц 2, 
+X2</t>
+  </si>
+  <si>
+    <t>Варианты 
+x(i) ряда X3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,17 +213,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -188,14 +238,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,95 +531,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1957</v>
       </c>
@@ -616,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1958</v>
       </c>
@@ -669,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1959</v>
       </c>
@@ -722,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1960</v>
       </c>
@@ -775,7 +838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1961</v>
       </c>
@@ -828,7 +891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1962</v>
       </c>
@@ -881,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1963</v>
       </c>
@@ -934,7 +997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1964</v>
       </c>
@@ -987,7 +1050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1965</v>
       </c>
@@ -1040,7 +1103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1966</v>
       </c>
@@ -1093,7 +1156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1967</v>
       </c>
@@ -1146,7 +1209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1968</v>
       </c>
@@ -1199,7 +1262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1969</v>
       </c>
@@ -1252,7 +1315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1970</v>
       </c>
@@ -1305,7 +1368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1971</v>
       </c>
@@ -1358,7 +1421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1972</v>
       </c>
@@ -1411,7 +1474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1973</v>
       </c>
@@ -1464,7 +1527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1974</v>
       </c>
@@ -1503,7 +1566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1975</v>
       </c>
@@ -1542,7 +1605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1976</v>
       </c>
@@ -1581,7 +1644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1977</v>
       </c>
@@ -1603,8 +1666,8 @@
       <c r="G23" s="1">
         <v>8.1</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>18</v>
+      <c r="H23" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1624,7 +1687,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1978</v>
       </c>
@@ -1647,7 +1710,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1979</v>
       </c>
@@ -1670,7 +1733,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1980</v>
       </c>
@@ -1693,7 +1756,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1981</v>
       </c>
@@ -1716,7 +1779,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1982</v>
       </c>
@@ -1739,7 +1802,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1983</v>
       </c>
@@ -1762,7 +1825,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1984</v>
       </c>
@@ -1785,7 +1848,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1985</v>
       </c>
@@ -1808,7 +1871,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1986</v>
       </c>
@@ -1831,7 +1894,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1987</v>
       </c>
@@ -1854,7 +1917,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1988</v>
       </c>
@@ -1877,7 +1940,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1989</v>
       </c>
@@ -1900,7 +1963,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1990</v>
       </c>
@@ -1923,7 +1986,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1991</v>
       </c>
@@ -1946,7 +2009,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1992</v>
       </c>
@@ -1969,7 +2032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1993</v>
       </c>
@@ -1992,26 +2055,202 @@
         <v>9.1</v>
       </c>
     </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45">
+        <f>SUMPRODUCT(K3:K19,H3:H19)/K23</f>
+        <v>8.1810810810810803</v>
+      </c>
+      <c r="E45">
+        <f>AVERAGE(B3:B39)</f>
+        <v>8.1810810810810821</v>
+      </c>
+      <c r="F45">
+        <f>SUMPRODUCT(L3:L19,I3:I19)/L23</f>
+        <v>7.9729729729729746</v>
+      </c>
+      <c r="G45">
+        <f>AVERAGE(C3:C39)</f>
+        <v>7.9729729729729746</v>
+      </c>
+      <c r="H45">
+        <f>SUMPRODUCT(M3:M22,J3:J22)/M23</f>
+        <v>8.0513513513513519</v>
+      </c>
+      <c r="I45">
+        <f>AVERAGE(D3:D39)</f>
+        <v>8.0513513513513519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46">
+        <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K23</f>
+        <v>0.43937180423666905</v>
+      </c>
+      <c r="E46">
+        <f>_xlfn.VAR.P(B3:B39)</f>
+        <v>0.43937180423666922</v>
+      </c>
+      <c r="F46">
+        <f>SUMPRODUCT(I3:I19-F45, I3:I19-F45, L3:L19)/L23</f>
+        <v>0.30575602629656695</v>
+      </c>
+      <c r="G46">
+        <f>_xlfn.VAR.P(C3:C39)</f>
+        <v>0.30575602629656679</v>
+      </c>
+      <c r="H46">
+        <f>SUMPRODUCT(J3:J22-H45, J3:J22-H45, M3:M22)/M23</f>
+        <v>0.2770927684441199</v>
+      </c>
+      <c r="I46">
+        <f>_xlfn.VAR.P(D3:D39)</f>
+        <v>0.27709276844411984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47">
+        <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K23-1)</f>
+        <v>0.45157657657657652</v>
+      </c>
+      <c r="E47">
+        <f>_xlfn.VAR.S(B3:B39)</f>
+        <v>0.45157657657657668</v>
+      </c>
+      <c r="F47">
+        <f>SUMPRODUCT(I3:I19-F45, I3:I19-F45, L3:L19)/(L23-1)</f>
+        <v>0.31424924924924935</v>
+      </c>
+      <c r="G47">
+        <f>_xlfn.VAR.S(C3:C39)</f>
+        <v>0.31424924924924924</v>
+      </c>
+      <c r="H47">
+        <f>SUMPRODUCT(J3:J22-H45, J3:J22-H45, M3:M22)/(M23-1)</f>
+        <v>0.28478978978978986</v>
+      </c>
+      <c r="I47">
+        <f>_xlfn.VAR.S(D3:D39)</f>
+        <v>0.2847897897897898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48">
+        <f>SQRT(D46)</f>
+        <v>0.6628512685638227</v>
+      </c>
+      <c r="E48">
+        <f>_xlfn.STDEV.P(B3:B39)</f>
+        <v>0.66285126856382282</v>
+      </c>
+      <c r="F48">
+        <f>SQRT(F46)</f>
+        <v>0.55295210126788286</v>
+      </c>
+      <c r="G48">
+        <f>_xlfn.STDEV.P(C3:C39)</f>
+        <v>0.55295210126788263</v>
+      </c>
+      <c r="H48">
+        <f>SQRT(H46)</f>
+        <v>0.5263960186438722</v>
+      </c>
+      <c r="I48">
+        <f>_xlfn.STDEV.P(D3:D39)</f>
+        <v>0.5263960186438722</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="H3:H39"/>
-  <sortState ref="G3:G39">
+  <autoFilter ref="H3:H39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G39">
     <sortCondition ref="G3"/>
   </sortState>
-  <mergeCells count="12">
+  <mergeCells count="21">
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G48 E48" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/САВР/Лабораторные/lab2/Lab2_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab2/Lab2_Var№5_Кендысь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70257E8-CDCF-47E6-B301-B9998DD9A4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7106CD7E-DCFF-4A3C-A62F-7E07D7A85418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,36 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Год</t>
-  </si>
-  <si>
-    <t>Месяц 1, X1</t>
-  </si>
-  <si>
-    <t>Месяц 2, X2</t>
-  </si>
-  <si>
-    <t>Месяц 3, X3</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>mc1</t>
-  </si>
-  <si>
-    <t>mc2</t>
-  </si>
-  <si>
-    <t>mc3</t>
   </si>
   <si>
     <t>Абсол. накопл. частота</t>
@@ -73,28 +46,6 @@
   </si>
   <si>
     <t>Итого</t>
-  </si>
-  <si>
-    <t>Формула</t>
-  </si>
-  <si>
-    <t>Встр. функция</t>
-  </si>
-  <si>
-    <t>Месяц 3,
- X3</t>
-  </si>
-  <si>
-    <t>Варианты
-x(i) ряда X1</t>
-  </si>
-  <si>
-    <t>Ранжир.
-ряд X2</t>
-  </si>
-  <si>
-    <t>Ранжир. 
-ряд X3</t>
   </si>
   <si>
     <t>Среднее арифметическое</t>
@@ -109,31 +60,884 @@
     <t>Стандартное отклонение</t>
   </si>
   <si>
-    <t>Ранжир. 
-ряд X1</t>
+    <t>Коэффициент вариации</t>
   </si>
   <si>
-    <t>Варианты 
-x(i) ряда X2</t>
+    <t>Коэффициент асимметрии</t>
   </si>
   <si>
-    <t>Месяц 1, 
-X1</t>
+    <t>Коэффициент эксцесса</t>
   </si>
   <si>
-    <t>Месяц 2, 
-X2</t>
+    <r>
+      <t>Месяц 1, 
+X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
-    <t>Варианты 
-x(i) ряда X3</t>
+    <r>
+      <t>Месяц 2, 
+X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Месяц 3,
+ X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ранжир. 
+ряд X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ранжир.
+ряд X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ранжир. 
+ряд X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Варианты
+x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(i)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ряда X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Варианты 
+x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(i)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ряда X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Варианты 
+x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(i)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ряда X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Месяц 1, X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Месяц 2, X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Месяц 3, X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Вывод</t>
+  </si>
+  <si>
+    <r>
+      <t>(X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ср</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ср</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ср</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ср</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ср</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ср</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>Мода (моды)</t>
+  </si>
+  <si>
+    <t>Медиана</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +955,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +984,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,59 +1007,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,14 +1034,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,17 +1323,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" customWidth="1"/>
@@ -551,79 +1342,103 @@
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1957</v>
       </c>
@@ -678,8 +1493,32 @@
         <f>SUM(M3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1">
+        <f>(B3-$D$45)^3</f>
+        <v>7.3517363236136266E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <f>(C3-$E$45)^3</f>
+        <v>-3.8858507886997836E-4</v>
+      </c>
+      <c r="S3" s="1">
+        <f>(D3-$F$45)^3</f>
+        <v>9.0306516889423774E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <f>(B3-$D$45)^4</f>
+        <v>3.0797814328651706E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f>(C3-$E$45)^4</f>
+        <v>2.8356208458079985E-5</v>
+      </c>
+      <c r="V3" s="1">
+        <f>(D3-$F$45)^4</f>
+        <v>4.0515896766606288E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1958</v>
       </c>
@@ -731,8 +1570,32 @@
         <f>SUM(M3:M4)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1">
+        <f>(B4-$D$45)^3</f>
+        <v>3.2437012615245127E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f>(C4-$E$45)^3</f>
+        <v>1.17012615244898E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <f>(D4-$F$45)^3</f>
+        <v>4.2380293368605923E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f>(B4-$D$45)^4</f>
+        <v>1.0344776996213336E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f>(C4-$E$45)^4</f>
+        <v>2.6565026163706301E-3</v>
+      </c>
+      <c r="V4" s="1">
+        <f>(D4-$F$45)^4</f>
+        <v>1.477583201229773E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1959</v>
       </c>
@@ -784,8 +1647,32 @@
         <f>SUM($M$3:M5)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1">
+        <f>(B5-$D$45)^3</f>
+        <v>7.3517363236136266E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f>(C5-$E$45)^3</f>
+        <v>3.497445363551982E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f>(D5-$F$45)^3</f>
+        <v>9.0306516889423774E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f>(B5-$D$45)^4</f>
+        <v>3.0797814328651706E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f>(C5-$E$45)^4</f>
+        <v>1.1437591594318614E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <f>(D5-$F$45)^4</f>
+        <v>4.0515896766606288E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1960</v>
       </c>
@@ -837,8 +1724,32 @@
         <f>SUM($M$3:M6)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1">
+        <f>(B6-$D$45)^3</f>
+        <v>1.0491797129489033E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <f>(C6-$E$45)^3</f>
+        <v>7.7869267368170986E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <f>(D6-$F$45)^3</f>
+        <v>9.0306516889423774E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f>(B6-$D$45)^4</f>
+        <v>2.2968528851043672E-3</v>
+      </c>
+      <c r="U6" s="1">
+        <f>(C6-$E$45)^4</f>
+        <v>3.325228174100265E-2</v>
+      </c>
+      <c r="V6" s="1">
+        <f>(D6-$F$45)^4</f>
+        <v>4.0515896766606288E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1961</v>
       </c>
@@ -890,8 +1801,32 @@
         <f>SUM($M$3:M7)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1">
+        <f>(B7-$D$45)^3</f>
+        <v>0.37156922590962205</v>
+      </c>
+      <c r="R7" s="1">
+        <f>(C7-$E$45)^3</f>
+        <v>7.7869267368170986E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <f>(D7-$F$45)^3</f>
+        <v>0.4195987009653922</v>
+      </c>
+      <c r="T7" s="1">
+        <f>(B7-$D$45)^4</f>
+        <v>0.26712814619448544</v>
+      </c>
+      <c r="U7" s="1">
+        <f>(C7-$E$45)^4</f>
+        <v>3.325228174100265E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <f>(D7-$F$45)^4</f>
+        <v>0.31413200045246936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1962</v>
       </c>
@@ -943,8 +1878,32 @@
         <f>SUM($M$3:M8)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1">
+        <f>(B8-$D$45)^3</f>
+        <v>3.2437012615245127E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <f>(C8-$E$45)^3</f>
+        <v>1.17012615244898E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f>(D8-$F$45)^3</f>
+        <v>-3.4670404517008037E-3</v>
+      </c>
+      <c r="T8" s="1">
+        <f>(B8-$D$45)^4</f>
+        <v>1.0344776996213336E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <f>(C8-$E$45)^4</f>
+        <v>2.6565026163706301E-3</v>
+      </c>
+      <c r="V8" s="1">
+        <f>(D8-$F$45)^4</f>
+        <v>5.2474125755471704E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1963</v>
       </c>
@@ -996,8 +1955,32 @@
         <f>SUM($M$3:M9)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1">
+        <f>(B9-$D$45)^3</f>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R9" s="1">
+        <f>(C9-$E$45)^3</f>
+        <v>1.17012615244898E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f>(D9-$F$45)^3</f>
+        <v>9.0306516889423774E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f>(B9-$D$45)^4</f>
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U9" s="1">
+        <f>(C9-$E$45)^4</f>
+        <v>2.6565026163706301E-3</v>
+      </c>
+      <c r="V9" s="1">
+        <f>(D9-$F$45)^4</f>
+        <v>4.0515896766606288E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1964</v>
       </c>
@@ -1049,8 +2032,32 @@
         <f>SUM($M$3:M10)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1">
+        <f>(B10-$D$45)^3</f>
+        <v>0.54919011707105359</v>
+      </c>
+      <c r="R10" s="1">
+        <f>(C10-$E$45)^3</f>
+        <v>1.0832922038181301</v>
+      </c>
+      <c r="S10" s="1">
+        <f>(D10-$F$45)^3</f>
+        <v>1.153161155311627</v>
+      </c>
+      <c r="T10" s="1">
+        <f>(B10-$D$45)^4</f>
+        <v>0.44974217695278207</v>
+      </c>
+      <c r="U10" s="1">
+        <f>(C10-$E$45)^4</f>
+        <v>1.1125703714888888</v>
+      </c>
+      <c r="V10" s="1">
+        <f>(D10-$F$45)^4</f>
+        <v>1.2092608871916508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1965</v>
       </c>
@@ -1102,8 +2109,32 @@
         <f>SUM($M$3:M11)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1">
+        <f>(B11-$D$45)^3</f>
+        <v>1.0491797129489033E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <f>(C11-$E$45)^3</f>
+        <v>1.0832922038181301</v>
+      </c>
+      <c r="S11" s="1">
+        <f>(D11-$F$45)^3</f>
+        <v>0.61120060016188527</v>
+      </c>
+      <c r="T11" s="1">
+        <f>(B11-$D$45)^4</f>
+        <v>2.2968528851043672E-3</v>
+      </c>
+      <c r="U11" s="1">
+        <f>(C11-$E$45)^4</f>
+        <v>1.1125703714888888</v>
+      </c>
+      <c r="V11" s="1">
+        <f>(D11-$F$45)^4</f>
+        <v>0.51869456338062681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1966</v>
       </c>
@@ -1155,8 +2186,32 @@
         <f>SUM($M$3:M12)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1">
+        <f>(B12-$D$45)^3</f>
+        <v>7.3517363236136266E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <f>(C12-$E$45)^3</f>
+        <v>0.24652375969833737</v>
+      </c>
+      <c r="S12" s="1">
+        <f>(D12-$F$45)^3</f>
+        <v>0.16515165932916032</v>
+      </c>
+      <c r="T12" s="1">
+        <f>(B12-$D$45)^4</f>
+        <v>3.0797814328651706E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <f>(C12-$E$45)^4</f>
+        <v>0.15457706013517319</v>
+      </c>
+      <c r="V12" s="1">
+        <f>(D12-$F$45)^4</f>
+        <v>9.061023471302565E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1967</v>
       </c>
@@ -1208,8 +2263,32 @@
         <f>SUM($M$3:M13)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="1">
+        <f>(B13-$D$45)^3</f>
+        <v>1.0491797129489033E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <f>(C13-$E$45)^3</f>
+        <v>0.56566473851499233</v>
+      </c>
+      <c r="S13" s="1">
+        <f>(D13-$F$45)^3</f>
+        <v>-3.4670404517008037E-3</v>
+      </c>
+      <c r="T13" s="1">
+        <f>(B13-$D$45)^4</f>
+        <v>2.2968528851043672E-3</v>
+      </c>
+      <c r="U13" s="1">
+        <f>(C13-$E$45)^4</f>
+        <v>0.46782002698807429</v>
+      </c>
+      <c r="V13" s="1">
+        <f>(D13-$F$45)^4</f>
+        <v>5.2474125755471704E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1968</v>
       </c>
@@ -1261,8 +2340,32 @@
         <f>SUM($M$3:M14)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="1">
+        <f>(B14-$D$45)^3</f>
+        <v>3.2437012615245127E-2</v>
+      </c>
+      <c r="R14" s="1">
+        <f>(C14-$E$45)^3</f>
+        <v>0.14638570272244353</v>
+      </c>
+      <c r="S14" s="1">
+        <f>(D14-$F$45)^3</f>
+        <v>1.5372988766706832E-2</v>
+      </c>
+      <c r="T14" s="1">
+        <f>(B14-$D$45)^4</f>
+        <v>1.0344776996213336E-2</v>
+      </c>
+      <c r="U14" s="1">
+        <f>(C14-$E$45)^4</f>
+        <v>7.7149221705071352E-2</v>
+      </c>
+      <c r="V14" s="1">
+        <f>(D14-$F$45)^4</f>
+        <v>3.822472882532511E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1969</v>
       </c>
@@ -1314,8 +2417,32 @@
         <f>SUM($M$3:M15)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1">
+        <f>(B15-$D$45)^3</f>
+        <v>0.23708346988332546</v>
+      </c>
+      <c r="R15" s="1">
+        <f>(C15-$E$45)^3</f>
+        <v>1.17012615244898E-2</v>
+      </c>
+      <c r="S15" s="1">
+        <f>(D15-$F$45)^3</f>
+        <v>3.2846030837264456E-3</v>
+      </c>
+      <c r="T15" s="1">
+        <f>(B15-$D$45)^4</f>
+        <v>0.14673544487373422</v>
+      </c>
+      <c r="U15" s="1">
+        <f>(C15-$E$45)^4</f>
+        <v>2.6565026163706301E-3</v>
+      </c>
+      <c r="V15" s="1">
+        <f>(D15-$F$45)^4</f>
+        <v>4.8825180974311602E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1970</v>
       </c>
@@ -1367,8 +2494,32 @@
         <f>SUM($M$3:M16)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1">
+        <f>(B16-$D$45)^3</f>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R16" s="1">
+        <f>(C16-$E$45)^3</f>
+        <v>3.497445363551982E-2</v>
+      </c>
+      <c r="S16" s="1">
+        <f>(D16-$F$45)^3</f>
+        <v>-3.4670404517008037E-3</v>
+      </c>
+      <c r="T16" s="1">
+        <f>(B16-$D$45)^4</f>
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U16" s="1">
+        <f>(C16-$E$45)^4</f>
+        <v>1.1437591594318614E-2</v>
+      </c>
+      <c r="V16" s="1">
+        <f>(D16-$F$45)^4</f>
+        <v>5.2474125755471704E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1971</v>
       </c>
@@ -1420,8 +2571,32 @@
         <f>SUM($M$3:M17)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1">
+        <f>(B17-$D$45)^3</f>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R17" s="1">
+        <f>(C17-$E$45)^3</f>
+        <v>-5.1752907034135808E-3</v>
+      </c>
+      <c r="S17" s="1">
+        <f>(D17-$F$45)^3</f>
+        <v>-1.5879750459005533E-2</v>
+      </c>
+      <c r="T17" s="1">
+        <f>(B17-$D$45)^4</f>
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U17" s="1">
+        <f>(C17-$E$45)^4</f>
+        <v>8.9518541896884481E-4</v>
+      </c>
+      <c r="V17" s="1">
+        <f>(D17-$F$45)^4</f>
+        <v>3.991396736993294E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1972</v>
       </c>
@@ -1473,8 +2648,32 @@
         <f>SUM($M$3:M18)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1">
+        <f>(B18-$D$45)^3</f>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R18" s="1">
+        <f>(C18-$E$45)^3</f>
+        <v>1.9742167295122134E-5</v>
+      </c>
+      <c r="S18" s="1">
+        <f>(D18-$F$45)^3</f>
+        <v>1.1513631966516615E-4</v>
+      </c>
+      <c r="T18" s="1">
+        <f>(B18-$D$45)^4</f>
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U18" s="1">
+        <f>(C18-$E$45)^4</f>
+        <v>5.3357208905732321E-7</v>
+      </c>
+      <c r="V18" s="1">
+        <f>(D18-$F$45)^4</f>
+        <v>5.6012263620890557E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1973</v>
       </c>
@@ -1526,8 +2725,32 @@
         <f>SUM($M$3:M19)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1">
+        <f>(B19-$D$45)^3</f>
+        <v>6.7715633822281323E-6</v>
+      </c>
+      <c r="R19" s="1">
+        <f>(C19-$E$45)^3</f>
+        <v>-2.0340374706335578E-2</v>
+      </c>
+      <c r="S19" s="1">
+        <f>(D19-$F$45)^3</f>
+        <v>-1.5879750459005533E-2</v>
+      </c>
+      <c r="T19" s="1">
+        <f>(B19-$D$45)^4</f>
+        <v>1.2811065858269459E-7</v>
+      </c>
+      <c r="U19" s="1">
+        <f>(C19-$E$45)^4</f>
+        <v>5.5523725549727143E-3</v>
+      </c>
+      <c r="V19" s="1">
+        <f>(D19-$F$45)^4</f>
+        <v>3.991396736993294E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1974</v>
       </c>
@@ -1565,8 +2788,32 @@
         <f>SUM($M$3:M20)</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1">
+        <f>(B20-$D$45)^3</f>
+        <v>-5.330385169683852E-4</v>
+      </c>
+      <c r="R20" s="1">
+        <f>(C20-$E$45)^3</f>
+        <v>-5.1752907034135808E-3</v>
+      </c>
+      <c r="S20" s="1">
+        <f>(D20-$F$45)^3</f>
+        <v>-1.3541152547727153E-4</v>
+      </c>
+      <c r="T20" s="1">
+        <f>(B20-$D$45)^4</f>
+        <v>4.3219339213652644E-5</v>
+      </c>
+      <c r="U20" s="1">
+        <f>(C20-$E$45)^4</f>
+        <v>8.9518541896884481E-4</v>
+      </c>
+      <c r="V20" s="1">
+        <f>(D20-$F$45)^4</f>
+        <v>6.9535648218059154E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1975</v>
       </c>
@@ -1604,8 +2851,32 @@
         <f>SUM($M$3:M21)</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="1">
+        <f>(B21-$D$45)^3</f>
+        <v>-0.47652792529563692</v>
+      </c>
+      <c r="R21" s="1">
+        <f>(C21-$E$45)^3</f>
+        <v>-0.46184147039662271</v>
+      </c>
+      <c r="S21" s="1">
+        <f>(D21-$F$45)^3</f>
+        <v>-0.42415951671174595</v>
+      </c>
+      <c r="T21" s="1">
+        <f>(B21-$D$45)^4</f>
+        <v>0.37220694705524021</v>
+      </c>
+      <c r="U21" s="1">
+        <f>(C21-$E$45)^4</f>
+        <v>0.35699097441468741</v>
+      </c>
+      <c r="V21" s="1">
+        <f>(D21-$F$45)^4</f>
+        <v>0.31869282606990673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1976</v>
       </c>
@@ -1643,8 +2914,32 @@
         <f>SUM($M$3:M22)</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1">
+        <f>(B22-$D$45)^3</f>
+        <v>-0.19620506189169409</v>
+      </c>
+      <c r="R22" s="1">
+        <f>(C22-$E$45)^3</f>
+        <v>-0.46184147039662271</v>
+      </c>
+      <c r="S22" s="1">
+        <f>(D22-$F$45)^3</f>
+        <v>-0.61705871320553651</v>
+      </c>
+      <c r="T22" s="1">
+        <f>(B22-$D$45)^4</f>
+        <v>0.11401104947760594</v>
+      </c>
+      <c r="U22" s="1">
+        <f>(C22-$E$45)^4</f>
+        <v>0.35699097441468741</v>
+      </c>
+      <c r="V22" s="1">
+        <f>(D22-$F$45)^4</f>
+        <v>0.52533376935065967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1977</v>
       </c>
@@ -1666,8 +2961,8 @@
       <c r="G23" s="1">
         <v>8.1</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>12</v>
+      <c r="H23" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1686,8 +2981,32 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1">
+        <f>(B23-$D$45)^3</f>
+        <v>-5.6500341342072424</v>
+      </c>
+      <c r="R23" s="1">
+        <f>(C23-$E$45)^3</f>
+        <v>-0.30478449450180883</v>
+      </c>
+      <c r="S23" s="1">
+        <f>(D23-$F$45)^3</f>
+        <v>1.1513631966516615E-4</v>
+      </c>
+      <c r="T23" s="1">
+        <f>(B23-$D$45)^4</f>
+        <v>10.063168903898839</v>
+      </c>
+      <c r="U23" s="1">
+        <f>(C23-$E$45)^4</f>
+        <v>0.20511172738094757</v>
+      </c>
+      <c r="V23" s="1">
+        <f>(D23-$F$45)^4</f>
+        <v>5.6012263620890557E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1978</v>
       </c>
@@ -1709,8 +3028,41 @@
       <c r="G24" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1">
+        <f>(B24-$D$45)^3</f>
+        <v>-4.7507916214241934</v>
+      </c>
+      <c r="R24" s="1">
+        <f>(C24-$E$45)^3</f>
+        <v>-0.10580567784731516</v>
+      </c>
+      <c r="S24" s="1">
+        <f>(D24-$F$45)^3</f>
+        <v>0.61120060016188527</v>
+      </c>
+      <c r="T24" s="1">
+        <f>(B24-$D$45)^4</f>
+        <v>7.9864659149347217</v>
+      </c>
+      <c r="U24" s="1">
+        <f>(C24-$E$45)^4</f>
+        <v>5.0043226008865453E-2</v>
+      </c>
+      <c r="V24" s="1">
+        <f>(D24-$F$45)^4</f>
+        <v>0.51869456338062681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1979</v>
       </c>
@@ -1732,8 +3084,41 @@
       <c r="G25" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1">
+        <f>(B25-$D$45)^3</f>
+        <v>1.0578373047993208</v>
+      </c>
+      <c r="R25" s="1">
+        <f>(C25-$E$45)^3</f>
+        <v>-3.8858507886997836E-4</v>
+      </c>
+      <c r="S25" s="1">
+        <f>(D25-$F$45)^3</f>
+        <v>-0.86103899078041046</v>
+      </c>
+      <c r="T25" s="1">
+        <f>(B25-$D$45)^4</f>
+        <v>1.077850442998227</v>
+      </c>
+      <c r="U25" s="1">
+        <f>(C25-$E$45)^4</f>
+        <v>2.8356208458079985E-5</v>
+      </c>
+      <c r="V25" s="1">
+        <f>(D25-$F$45)^4</f>
+        <v>0.81915060744514812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1980</v>
       </c>
@@ -1755,8 +3140,41 @@
       <c r="G26" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1">
+        <f>(B26-$D$45)^3</f>
+        <v>0.54919011707105359</v>
+      </c>
+      <c r="R26" s="1">
+        <f>(C26-$E$45)^3</f>
+        <v>-5.1752907034135808E-3</v>
+      </c>
+      <c r="S26" s="1">
+        <f>(D26-$F$45)^3</f>
+        <v>-0.42415951671174595</v>
+      </c>
+      <c r="T26" s="1">
+        <f>(B26-$D$45)^4</f>
+        <v>0.44974217695278207</v>
+      </c>
+      <c r="U26" s="1">
+        <f>(C26-$E$45)^4</f>
+        <v>8.9518541896884481E-4</v>
+      </c>
+      <c r="V26" s="1">
+        <f>(D26-$F$45)^4</f>
+        <v>0.31869282606990673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1981</v>
       </c>
@@ -1778,8 +3196,41 @@
       <c r="G27" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1">
+        <f>(B27-$D$45)^3</f>
+        <v>6.7715633822281323E-6</v>
+      </c>
+      <c r="R27" s="1">
+        <f>(C27-$E$45)^3</f>
+        <v>-4.682381280476986</v>
+      </c>
+      <c r="S27" s="1">
+        <f>(D27-$F$45)^3</f>
+        <v>-0.42415951671174595</v>
+      </c>
+      <c r="T27" s="1">
+        <f>(B27-$D$45)^4</f>
+        <v>1.2811065858269459E-7</v>
+      </c>
+      <c r="U27" s="1">
+        <f>(C27-$E$45)^4</f>
+        <v>7.8334973313925884</v>
+      </c>
+      <c r="V27" s="1">
+        <f>(D27-$F$45)^4</f>
+        <v>0.31869282606990673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1982</v>
       </c>
@@ -1801,8 +3252,41 @@
       <c r="G28" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1">
+        <f>(B28-$D$45)^3</f>
+        <v>-5.6500341342072424</v>
+      </c>
+      <c r="R28" s="1">
+        <f>(C28-$E$45)^3</f>
+        <v>-3.8858507886997836E-4</v>
+      </c>
+      <c r="S28" s="1">
+        <f>(D28-$F$45)^3</f>
+        <v>-0.16760436696740622</v>
+      </c>
+      <c r="T28" s="1">
+        <f>(B28-$D$45)^4</f>
+        <v>10.063168903898839</v>
+      </c>
+      <c r="U28" s="1">
+        <f>(C28-$E$45)^4</f>
+        <v>2.8356208458079985E-5</v>
+      </c>
+      <c r="V28" s="1">
+        <f>(D28-$F$45)^4</f>
+        <v>9.2408894219867296E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1983</v>
       </c>
@@ -1824,8 +3308,41 @@
       <c r="G29" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1">
+        <f>(B29-$D$45)^3</f>
+        <v>0.54919011707105359</v>
+      </c>
+      <c r="R29" s="1">
+        <f>(C29-$E$45)^3</f>
+        <v>1.0832922038181301</v>
+      </c>
+      <c r="S29" s="1">
+        <f>(D29-$F$45)^3</f>
+        <v>-3.4670404517008037E-3</v>
+      </c>
+      <c r="T29" s="1">
+        <f>(B29-$D$45)^4</f>
+        <v>0.44974217695278207</v>
+      </c>
+      <c r="U29" s="1">
+        <f>(C29-$E$45)^4</f>
+        <v>1.1125703714888888</v>
+      </c>
+      <c r="V29" s="1">
+        <f>(D29-$F$45)^4</f>
+        <v>5.2474125755471704E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1984</v>
       </c>
@@ -1847,8 +3364,41 @@
       <c r="G30" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1">
+        <f>(B30-$D$45)^3</f>
+        <v>-5.9377134621838058E-3</v>
+      </c>
+      <c r="R30" s="1">
+        <f>(C30-$E$45)^3</f>
+        <v>-0.18810589698537231</v>
+      </c>
+      <c r="S30" s="1">
+        <f>(D30-$F$45)^3</f>
+        <v>-9.1948413716858413E-2</v>
+      </c>
+      <c r="T30" s="1">
+        <f>(B30-$D$45)^4</f>
+        <v>1.075207572881928E-3</v>
+      </c>
+      <c r="U30" s="1">
+        <f>(C30-$E$45)^4</f>
+        <v>0.1077795950294568</v>
+      </c>
+      <c r="V30" s="1">
+        <f>(D30-$F$45)^4</f>
+        <v>4.1501040785717258E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1985</v>
       </c>
@@ -1870,8 +3420,41 @@
       <c r="G31" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1">
+        <f>(B31-$D$45)^3</f>
+        <v>3.2437012615245127E-2</v>
+      </c>
+      <c r="R31" s="1">
+        <f>(C31-$E$45)^3</f>
+        <v>-3.8858507886997836E-4</v>
+      </c>
+      <c r="S31" s="1">
+        <f>(D31-$F$45)^3</f>
+        <v>1.5372988766706832E-2</v>
+      </c>
+      <c r="T31" s="1">
+        <f>(B31-$D$45)^4</f>
+        <v>1.0344776996213336E-2</v>
+      </c>
+      <c r="U31" s="1">
+        <f>(C31-$E$45)^4</f>
+        <v>2.8356208458079985E-5</v>
+      </c>
+      <c r="V31" s="1">
+        <f>(D31-$F$45)^4</f>
+        <v>3.822472882532511E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1986</v>
       </c>
@@ -1893,8 +3476,41 @@
       <c r="G32" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1">
+        <f>(B32-$D$45)^3</f>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R32" s="1">
+        <f>(C32-$E$45)^3</f>
+        <v>7.7869267368170986E-2</v>
+      </c>
+      <c r="S32" s="1">
+        <f>(D32-$F$45)^3</f>
+        <v>0.85372141827729686</v>
+      </c>
+      <c r="T32" s="1">
+        <f>(B32-$D$45)^4</f>
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U32" s="1">
+        <f>(C32-$E$45)^4</f>
+        <v>3.325228174100265E-2</v>
+      </c>
+      <c r="V32" s="1">
+        <f>(D32-$F$45)^4</f>
+        <v>0.80988166977116494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1987</v>
       </c>
@@ -1916,8 +3532,41 @@
       <c r="G33" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1">
+        <f>(B33-$D$45)^3</f>
+        <v>-5.9377134621838058E-3</v>
+      </c>
+      <c r="R33" s="1">
+        <f>(C33-$E$45)^3</f>
+        <v>-2.0340374706335578E-2</v>
+      </c>
+      <c r="S33" s="1">
+        <f>(D33-$F$45)^3</f>
+        <v>1.1513631966516615E-4</v>
+      </c>
+      <c r="T33" s="1">
+        <f>(B33-$D$45)^4</f>
+        <v>1.075207572881928E-3</v>
+      </c>
+      <c r="U33" s="1">
+        <f>(C33-$E$45)^4</f>
+        <v>5.5523725549727143E-3</v>
+      </c>
+      <c r="V33" s="1">
+        <f>(D33-$F$45)^4</f>
+        <v>5.6012263620890557E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1988</v>
       </c>
@@ -1939,8 +3588,41 @@
       <c r="G34" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1">
+        <f>(B34-$D$45)^3</f>
+        <v>-5.5341657947209202E-2</v>
+      </c>
+      <c r="R34" s="1">
+        <f>(C34-$E$45)^3</f>
+        <v>-5.1883837087636303E-2</v>
+      </c>
+      <c r="S34" s="1">
+        <f>(D34-$F$45)^3</f>
+        <v>-1.5879750459005533E-2</v>
+      </c>
+      <c r="T34" s="1">
+        <f>(B34-$D$45)^4</f>
+        <v>2.1089658839341854E-2</v>
+      </c>
+      <c r="U34" s="1">
+        <f>(C34-$E$45)^4</f>
+        <v>1.935126896782121E-2</v>
+      </c>
+      <c r="V34" s="1">
+        <f>(D34-$F$45)^4</f>
+        <v>3.991396736993294E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1989</v>
       </c>
@@ -1962,8 +3644,41 @@
       <c r="G35" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1">
+        <f>(B35-$D$45)^3</f>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R35" s="1">
+        <f>(C35-$E$45)^3</f>
+        <v>-3.8858507886997836E-4</v>
+      </c>
+      <c r="S35" s="1">
+        <f>(D35-$F$45)^3</f>
+        <v>1.1513631966516615E-4</v>
+      </c>
+      <c r="T35" s="1">
+        <f>(B35-$D$45)^4</f>
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U35" s="1">
+        <f>(C35-$E$45)^4</f>
+        <v>2.8356208458079985E-5</v>
+      </c>
+      <c r="V35" s="1">
+        <f>(D35-$F$45)^4</f>
+        <v>5.6012263620890557E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1990</v>
       </c>
@@ -1985,8 +3700,41 @@
       <c r="G36" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1">
+        <f>(B36-$D$45)^3</f>
+        <v>-5.330385169683852E-4</v>
+      </c>
+      <c r="R36" s="1">
+        <f>(C36-$E$45)^3</f>
+        <v>-5.1883837087636303E-2</v>
+      </c>
+      <c r="S36" s="1">
+        <f>(D36-$F$45)^3</f>
+        <v>-4.3373541547391224E-2</v>
+      </c>
+      <c r="T36" s="1">
+        <f>(B36-$D$45)^4</f>
+        <v>4.3219339213652644E-5</v>
+      </c>
+      <c r="U36" s="1">
+        <f>(C36-$E$45)^4</f>
+        <v>1.935126896782121E-2</v>
+      </c>
+      <c r="V36" s="1">
+        <f>(D36-$F$45)^4</f>
+        <v>1.5239352435569908E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1991</v>
       </c>
@@ -2008,8 +3756,41 @@
       <c r="G37" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1">
+        <f>(B37-$D$45)^3</f>
+        <v>-0.31593406116123324</v>
+      </c>
+      <c r="R37" s="1">
+        <f>(C37-$E$45)^3</f>
+        <v>-5.1883837087636303E-2</v>
+      </c>
+      <c r="S37" s="1">
+        <f>(D37-$F$45)^3</f>
+        <v>-1.3541152547727153E-4</v>
+      </c>
+      <c r="T37" s="1">
+        <f>(B37-$D$45)^4</f>
+        <v>0.21517671192602889</v>
+      </c>
+      <c r="U37" s="1">
+        <f>(C37-$E$45)^4</f>
+        <v>1.935126896782121E-2</v>
+      </c>
+      <c r="V37" s="1">
+        <f>(D37-$F$45)^4</f>
+        <v>6.9535648218059154E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1992</v>
       </c>
@@ -2031,8 +3812,41 @@
       <c r="G38" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1">
+        <f>(B38-$D$45)^3</f>
+        <v>6.7715633822281323E-6</v>
+      </c>
+      <c r="R38" s="1">
+        <f>(C38-$E$45)^3</f>
+        <v>-3.8858507886997836E-4</v>
+      </c>
+      <c r="S38" s="1">
+        <f>(D38-$F$45)^3</f>
+        <v>-0.27634140129903489</v>
+      </c>
+      <c r="T38" s="1">
+        <f>(B38-$D$45)^4</f>
+        <v>1.2811065858269459E-7</v>
+      </c>
+      <c r="U38" s="1">
+        <f>(C38-$E$45)^4</f>
+        <v>2.8356208458079985E-5</v>
+      </c>
+      <c r="V38" s="1">
+        <f>(D38-$F$45)^4</f>
+        <v>0.17999534517045251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1993</v>
       </c>
@@ -2054,187 +3868,475 @@
       <c r="G39" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13" t="s">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1">
+        <f>(B39-$D$45)^3</f>
+        <v>-0.19620506189169409</v>
+      </c>
+      <c r="R39" s="1">
+        <f>(C39-$E$45)^3</f>
+        <v>-5.1883837087636303E-2</v>
+      </c>
+      <c r="S39" s="1">
+        <f>(D39-$F$45)^3</f>
+        <v>-9.1948413716858413E-2</v>
+      </c>
+      <c r="T39" s="1">
+        <f>(B39-$D$45)^4</f>
+        <v>0.11401104947760594</v>
+      </c>
+      <c r="U39" s="1">
+        <f>(C39-$E$45)^4</f>
+        <v>1.935126896782121E-2</v>
+      </c>
+      <c r="V39" s="1">
+        <f>(D39-$F$45)^4</f>
+        <v>4.1501040785717258E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1">
+        <f>SUM(K3:K19)</f>
+        <v>37</v>
+      </c>
+      <c r="L40" s="1">
+        <f>SUM(L3:L19)</f>
+        <v>37</v>
+      </c>
+      <c r="M40" s="1">
+        <f>SUM(M3:M22)</f>
+        <v>37</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1">
+        <f>SUM(Q3:Q39)</f>
+        <v>-13.598068663257806</v>
+      </c>
+      <c r="R40" s="1">
+        <f>SUM(R3:R39)</f>
+        <v>-1.9120014609204357</v>
+      </c>
+      <c r="S40" s="1">
+        <f>SUM(S3:S39)</f>
+        <v>0.76856099342584061</v>
+      </c>
+      <c r="T40" s="1">
+        <f>SUM(T3:T39)</f>
+        <v>31.934339979862937</v>
+      </c>
+      <c r="U40" s="1">
+        <f>SUM(U3:U39)</f>
+        <v>13.172295338874322</v>
+      </c>
+      <c r="V40" s="1">
+        <f>SUM(V3:V39)</f>
+        <v>6.3315645312222379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="12">
         <f>SUMPRODUCT(K3:K19,H3:H19)/K23</f>
         <v>8.1810810810810803</v>
       </c>
-      <c r="E45">
-        <f>AVERAGE(B3:B39)</f>
-        <v>8.1810810810810821</v>
-      </c>
-      <c r="F45">
+      <c r="E45" s="12">
         <f>SUMPRODUCT(L3:L19,I3:I19)/L23</f>
         <v>7.9729729729729746</v>
       </c>
-      <c r="G45">
-        <f>AVERAGE(C3:C39)</f>
-        <v>7.9729729729729746</v>
-      </c>
-      <c r="H45">
+      <c r="F45" s="12">
         <f>SUMPRODUCT(M3:M22,J3:J22)/M23</f>
         <v>8.0513513513513519</v>
       </c>
-      <c r="I45">
-        <f>AVERAGE(D3:D39)</f>
-        <v>8.0513513513513519</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="12">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K23</f>
         <v>0.43937180423666905</v>
       </c>
-      <c r="E46">
-        <f>_xlfn.VAR.P(B3:B39)</f>
-        <v>0.43937180423666922</v>
-      </c>
-      <c r="F46">
-        <f>SUMPRODUCT(I3:I19-F45, I3:I19-F45, L3:L19)/L23</f>
+      <c r="E47" s="12">
+        <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/L23</f>
         <v>0.30575602629656695</v>
       </c>
-      <c r="G46">
-        <f>_xlfn.VAR.P(C3:C39)</f>
-        <v>0.30575602629656679</v>
-      </c>
-      <c r="H46">
-        <f>SUMPRODUCT(J3:J22-H45, J3:J22-H45, M3:M22)/M23</f>
+      <c r="F47" s="12">
+        <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/M23</f>
         <v>0.2770927684441199</v>
       </c>
-      <c r="I46">
-        <f>_xlfn.VAR.P(D3:D39)</f>
-        <v>0.27709276844411984</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="12">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K23-1)</f>
         <v>0.45157657657657652</v>
       </c>
-      <c r="E47">
-        <f>_xlfn.VAR.S(B3:B39)</f>
-        <v>0.45157657657657668</v>
-      </c>
-      <c r="F47">
-        <f>SUMPRODUCT(I3:I19-F45, I3:I19-F45, L3:L19)/(L23-1)</f>
+      <c r="E49" s="12">
+        <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/(L23-1)</f>
         <v>0.31424924924924935</v>
       </c>
-      <c r="G47">
-        <f>_xlfn.VAR.S(C3:C39)</f>
-        <v>0.31424924924924924</v>
-      </c>
-      <c r="H47">
-        <f>SUMPRODUCT(J3:J22-H45, J3:J22-H45, M3:M22)/(M23-1)</f>
+      <c r="F49" s="12">
+        <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/(M23-1)</f>
         <v>0.28478978978978986</v>
       </c>
-      <c r="I47">
-        <f>_xlfn.VAR.S(D3:D39)</f>
-        <v>0.2847897897897898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48">
-        <f>SQRT(D46)</f>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="12">
+        <f>SQRT(D47)</f>
         <v>0.6628512685638227</v>
       </c>
-      <c r="E48">
-        <f>_xlfn.STDEV.P(B3:B39)</f>
-        <v>0.66285126856382282</v>
-      </c>
-      <c r="F48">
-        <f>SQRT(F46)</f>
+      <c r="E51" s="12">
+        <f>SQRT(E47)</f>
         <v>0.55295210126788286</v>
       </c>
-      <c r="G48">
-        <f>_xlfn.STDEV.P(C3:C39)</f>
-        <v>0.55295210126788263</v>
-      </c>
-      <c r="H48">
-        <f>SQRT(H46)</f>
+      <c r="F51" s="12">
+        <f>SQRT(F47)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="I48">
-        <f>_xlfn.STDEV.P(D3:D39)</f>
-        <v>0.5263960186438722</v>
-      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="12">
+        <f>D51/D45</f>
+        <v>8.1022454366902683E-2</v>
+      </c>
+      <c r="E53" s="12">
+        <f>E51/E45</f>
+        <v>6.935331439631072E-2</v>
+      </c>
+      <c r="F53" s="12">
+        <f>F51/F45</f>
+        <v>6.5379834474062676E-2</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="12">
+        <f>Q40/(K40*D51^3)</f>
+        <v>-1.2619066541331863</v>
+      </c>
+      <c r="E55" s="12">
+        <f>R40/(L40*E51^3)</f>
+        <v>-0.3056496884394217</v>
+      </c>
+      <c r="F55" s="12">
+        <f>S40/(M40*F51^3)</f>
+        <v>0.14240945598119886</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="12">
+        <f>T40/(K40*D47^2)-3</f>
+        <v>1.4708680584490494</v>
+      </c>
+      <c r="E57" s="12">
+        <f>U40/(L40*E47^2)-3</f>
+        <v>0.80811175067843388</v>
+      </c>
+      <c r="F57" s="12">
+        <f>V40/(M40*F47^2)-3</f>
+        <v>-0.77126245071575994</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="12">
+        <f>H12</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E59" s="12">
+        <f>I11</f>
+        <v>7.9</v>
+      </c>
+      <c r="F59" s="12" t="str">
+        <f>J11&amp;", "&amp;J13&amp;", "&amp;J17</f>
+        <v>7.9, 8.1, 8.5</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="12">
+        <f>E21</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E61" s="12">
+        <f>F21</f>
+        <v>7.9</v>
+      </c>
+      <c r="F61" s="12">
+        <f>G21</f>
+        <v>8</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="H3:H39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G39">
     <sortCondition ref="G3"/>
   </sortState>
-  <mergeCells count="21">
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="K1:M1"/>
+  <mergeCells count="66">
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G53:I54"/>
+    <mergeCell ref="G55:I56"/>
+    <mergeCell ref="G57:I58"/>
+    <mergeCell ref="G59:I60"/>
+    <mergeCell ref="G61:I62"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:I46"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:I48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:I50"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="A53:C54"/>
+    <mergeCell ref="A55:C56"/>
+    <mergeCell ref="A57:C58"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -2242,15 +4344,17 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G51:I52"/>
+    <mergeCell ref="A51:C52"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="G48 E48" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/САВР/Лабораторные/lab2/Lab2_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab2/Lab2_Var№5_Кендысь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7106CD7E-DCFF-4A3C-A62F-7E07D7A85418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C62FEC-D690-4972-9CA6-C9CD78C59EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Год</t>
   </si>
@@ -931,13 +931,125 @@
   </si>
   <si>
     <t>Медиана</t>
+  </si>
+  <si>
+    <t>Основные статистические параметры температуры поверхности океана в январе, феврале и марте 1957-1993 гг. в точке 4 (60° с.ш. 20° з.д.)</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Результаты средств анализа данных пакета MS Excel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Для трёх рядов среднее значение температур примерно одинаковое, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>≈8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Выборочная дисперсия первого ряда чуть больше выборочных дисперсий остальных  двух рядов. Стандартное отклонение, соответственно, тоже больше. Таким образом, в январе наблюдался больший разброс температур.</t>
+  </si>
+  <si>
+    <t>Для всех трёх рядов можно сделать вывод, что выборка однородна и наблюдается высокая степень концентрации относительно среднего.</t>
+  </si>
+  <si>
+    <t>Для первого ряда характерна большая асимметрия, распределение скошено влево. Для второго ряда характерна умеренная скошенность влево. Для третьего ряда - малая скошенность вправо.</t>
+  </si>
+  <si>
+    <t>Для первых двух рядов эмпирические кривые распределений приближены к нормальному. Третий же ряд хоть и не считается приближенно нормальным, но значение его эксцессы относительно близко к порогу -0.5. Для первого и второго ряда распределение имеет острый пик и является высоковершинным, а для третьего распределение имеет плосковершинную форму.</t>
+  </si>
+  <si>
+    <t>Первые два ряда имеют по одной моде, которая близка к соответствующему среднему и равна медиане, т.е. приближённо выполняется свойство нормального распределения. Третий же ряд является полимодальным, что может говорить о возможной неоднородности распределения.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Вывод:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Среднее арифметическое (mean), выборочная дисперсия (исправленная, sample variance), медиана (median) и мода (mean) были вычислены верно, а коэффициенты асимметрии (skewness) и эксцесса (kurtosis) имеют похожие значения (отличаются, т.к. пакет использует немного другие формулы, более уточнённые). Другие результаты пакета также совпадают с действительностью. Пакет выдаёт только одну моду.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,6 +1087,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -984,7 +1112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1007,11 +1135,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1021,18 +1279,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1040,8 +1292,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+      <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,83 +1653,88 @@
     <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1431,12 +1753,12 @@
       <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1494,27 +1816,27 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <f>(B3-$D$45)^3</f>
+        <f t="shared" ref="Q3:Q39" si="0">(B3-$D$45)^3</f>
         <v>7.3517363236136266E-2</v>
       </c>
       <c r="R3" s="1">
-        <f>(C3-$E$45)^3</f>
+        <f t="shared" ref="R3:R39" si="1">(C3-$E$45)^3</f>
         <v>-3.8858507886997836E-4</v>
       </c>
       <c r="S3" s="1">
-        <f>(D3-$F$45)^3</f>
+        <f t="shared" ref="S3:S39" si="2">(D3-$F$45)^3</f>
         <v>9.0306516889423774E-2</v>
       </c>
       <c r="T3" s="1">
-        <f>(B3-$D$45)^4</f>
+        <f t="shared" ref="T3:T39" si="3">(B3-$D$45)^4</f>
         <v>3.0797814328651706E-2</v>
       </c>
       <c r="U3" s="1">
-        <f>(C3-$E$45)^4</f>
+        <f t="shared" ref="U3:U39" si="4">(C3-$E$45)^4</f>
         <v>2.8356208458079985E-5</v>
       </c>
       <c r="V3" s="1">
-        <f>(D3-$F$45)^4</f>
+        <f t="shared" ref="V3:V39" si="5">(D3-$F$45)^4</f>
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
@@ -1571,27 +1893,27 @@
         <v>2</v>
       </c>
       <c r="Q4" s="1">
-        <f>(B4-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>3.2437012615245127E-2</v>
       </c>
       <c r="R4" s="1">
-        <f>(C4-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>1.17012615244898E-2</v>
       </c>
       <c r="S4" s="1">
-        <f>(D4-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>4.2380293368605923E-2</v>
       </c>
       <c r="T4" s="1">
-        <f>(B4-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.0344776996213336E-2</v>
       </c>
       <c r="U4" s="1">
-        <f>(C4-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>2.6565026163706301E-3</v>
       </c>
       <c r="V4" s="1">
-        <f>(D4-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>1.477583201229773E-2</v>
       </c>
     </row>
@@ -1648,27 +1970,27 @@
         <v>5</v>
       </c>
       <c r="Q5" s="1">
-        <f>(B5-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>7.3517363236136266E-2</v>
       </c>
       <c r="R5" s="1">
-        <f>(C5-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>3.497445363551982E-2</v>
       </c>
       <c r="S5" s="1">
-        <f>(D5-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>9.0306516889423774E-2</v>
       </c>
       <c r="T5" s="1">
-        <f>(B5-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>3.0797814328651706E-2</v>
       </c>
       <c r="U5" s="1">
-        <f>(C5-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>1.1437591594318614E-2</v>
       </c>
       <c r="V5" s="1">
-        <f>(D5-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
@@ -1725,27 +2047,27 @@
         <v>6</v>
       </c>
       <c r="Q6" s="1">
-        <f>(B6-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>1.0491797129489033E-2</v>
       </c>
       <c r="R6" s="1">
-        <f>(C6-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>7.7869267368170986E-2</v>
       </c>
       <c r="S6" s="1">
-        <f>(D6-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>9.0306516889423774E-2</v>
       </c>
       <c r="T6" s="1">
-        <f>(B6-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>2.2968528851043672E-3</v>
       </c>
       <c r="U6" s="1">
-        <f>(C6-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>3.325228174100265E-2</v>
       </c>
       <c r="V6" s="1">
-        <f>(D6-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
@@ -1802,27 +2124,27 @@
         <v>7</v>
       </c>
       <c r="Q7" s="1">
-        <f>(B7-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>0.37156922590962205</v>
       </c>
       <c r="R7" s="1">
-        <f>(C7-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>7.7869267368170986E-2</v>
       </c>
       <c r="S7" s="1">
-        <f>(D7-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>0.4195987009653922</v>
       </c>
       <c r="T7" s="1">
-        <f>(B7-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>0.26712814619448544</v>
       </c>
       <c r="U7" s="1">
-        <f>(C7-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>3.325228174100265E-2</v>
       </c>
       <c r="V7" s="1">
-        <f>(D7-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>0.31413200045246936</v>
       </c>
     </row>
@@ -1879,27 +2201,27 @@
         <v>9</v>
       </c>
       <c r="Q8" s="1">
-        <f>(B8-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>3.2437012615245127E-2</v>
       </c>
       <c r="R8" s="1">
-        <f>(C8-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>1.17012615244898E-2</v>
       </c>
       <c r="S8" s="1">
-        <f>(D8-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-3.4670404517008037E-3</v>
       </c>
       <c r="T8" s="1">
-        <f>(B8-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.0344776996213336E-2</v>
       </c>
       <c r="U8" s="1">
-        <f>(C8-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>2.6565026163706301E-3</v>
       </c>
       <c r="V8" s="1">
-        <f>(D8-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
@@ -1956,27 +2278,27 @@
         <v>10</v>
       </c>
       <c r="Q9" s="1">
-        <f>(B9-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>1.6817167788680456E-3</v>
       </c>
       <c r="R9" s="1">
-        <f>(C9-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>1.17012615244898E-2</v>
       </c>
       <c r="S9" s="1">
-        <f>(D9-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>9.0306516889423774E-2</v>
       </c>
       <c r="T9" s="1">
-        <f>(B9-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.9998794127079703E-4</v>
       </c>
       <c r="U9" s="1">
-        <f>(C9-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>2.6565026163706301E-3</v>
       </c>
       <c r="V9" s="1">
-        <f>(D9-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
@@ -2033,27 +2355,27 @@
         <v>13</v>
       </c>
       <c r="Q10" s="1">
-        <f>(B10-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>0.54919011707105359</v>
       </c>
       <c r="R10" s="1">
-        <f>(C10-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>1.0832922038181301</v>
       </c>
       <c r="S10" s="1">
-        <f>(D10-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>1.153161155311627</v>
       </c>
       <c r="T10" s="1">
-        <f>(B10-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>0.44974217695278207</v>
       </c>
       <c r="U10" s="1">
-        <f>(C10-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>1.1125703714888888</v>
       </c>
       <c r="V10" s="1">
-        <f>(D10-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>1.2092608871916508</v>
       </c>
     </row>
@@ -2110,27 +2432,27 @@
         <v>17</v>
       </c>
       <c r="Q11" s="1">
-        <f>(B11-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>1.0491797129489033E-2</v>
       </c>
       <c r="R11" s="1">
-        <f>(C11-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>1.0832922038181301</v>
       </c>
       <c r="S11" s="1">
-        <f>(D11-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>0.61120060016188527</v>
       </c>
       <c r="T11" s="1">
-        <f>(B11-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>2.2968528851043672E-3</v>
       </c>
       <c r="U11" s="1">
-        <f>(C11-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>1.1125703714888888</v>
       </c>
       <c r="V11" s="1">
-        <f>(D11-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>0.51869456338062681</v>
       </c>
     </row>
@@ -2187,27 +2509,27 @@
         <v>19</v>
       </c>
       <c r="Q12" s="1">
-        <f>(B12-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>7.3517363236136266E-2</v>
       </c>
       <c r="R12" s="1">
-        <f>(C12-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>0.24652375969833737</v>
       </c>
       <c r="S12" s="1">
-        <f>(D12-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>0.16515165932916032</v>
       </c>
       <c r="T12" s="1">
-        <f>(B12-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>3.0797814328651706E-2</v>
       </c>
       <c r="U12" s="1">
-        <f>(C12-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>0.15457706013517319</v>
       </c>
       <c r="V12" s="1">
-        <f>(D12-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>9.061023471302565E-2</v>
       </c>
     </row>
@@ -2264,27 +2586,27 @@
         <v>23</v>
       </c>
       <c r="Q13" s="1">
-        <f>(B13-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>1.0491797129489033E-2</v>
       </c>
       <c r="R13" s="1">
-        <f>(C13-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>0.56566473851499233</v>
       </c>
       <c r="S13" s="1">
-        <f>(D13-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-3.4670404517008037E-3</v>
       </c>
       <c r="T13" s="1">
-        <f>(B13-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>2.2968528851043672E-3</v>
       </c>
       <c r="U13" s="1">
-        <f>(C13-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>0.46782002698807429</v>
       </c>
       <c r="V13" s="1">
-        <f>(D13-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
@@ -2341,27 +2663,27 @@
         <v>24</v>
       </c>
       <c r="Q14" s="1">
-        <f>(B14-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>3.2437012615245127E-2</v>
       </c>
       <c r="R14" s="1">
-        <f>(C14-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>0.14638570272244353</v>
       </c>
       <c r="S14" s="1">
-        <f>(D14-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>1.5372988766706832E-2</v>
       </c>
       <c r="T14" s="1">
-        <f>(B14-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.0344776996213336E-2</v>
       </c>
       <c r="U14" s="1">
-        <f>(C14-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>7.7149221705071352E-2</v>
       </c>
       <c r="V14" s="1">
-        <f>(D14-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>3.822472882532511E-3</v>
       </c>
     </row>
@@ -2418,27 +2740,27 @@
         <v>26</v>
       </c>
       <c r="Q15" s="1">
-        <f>(B15-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>0.23708346988332546</v>
       </c>
       <c r="R15" s="1">
-        <f>(C15-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>1.17012615244898E-2</v>
       </c>
       <c r="S15" s="1">
-        <f>(D15-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>3.2846030837264456E-3</v>
       </c>
       <c r="T15" s="1">
-        <f>(B15-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>0.14673544487373422</v>
       </c>
       <c r="U15" s="1">
-        <f>(C15-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>2.6565026163706301E-3</v>
       </c>
       <c r="V15" s="1">
-        <f>(D15-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>4.8825180974311602E-4</v>
       </c>
     </row>
@@ -2495,27 +2817,27 @@
         <v>27</v>
       </c>
       <c r="Q16" s="1">
-        <f>(B16-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>1.6817167788680456E-3</v>
       </c>
       <c r="R16" s="1">
-        <f>(C16-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>3.497445363551982E-2</v>
       </c>
       <c r="S16" s="1">
-        <f>(D16-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-3.4670404517008037E-3</v>
       </c>
       <c r="T16" s="1">
-        <f>(B16-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.9998794127079703E-4</v>
       </c>
       <c r="U16" s="1">
-        <f>(C16-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>1.1437591594318614E-2</v>
       </c>
       <c r="V16" s="1">
-        <f>(D16-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
@@ -2572,27 +2894,27 @@
         <v>31</v>
       </c>
       <c r="Q17" s="1">
-        <f>(B17-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>1.6817167788680456E-3</v>
       </c>
       <c r="R17" s="1">
-        <f>(C17-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-5.1752907034135808E-3</v>
       </c>
       <c r="S17" s="1">
-        <f>(D17-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-1.5879750459005533E-2</v>
       </c>
       <c r="T17" s="1">
-        <f>(B17-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.9998794127079703E-4</v>
       </c>
       <c r="U17" s="1">
-        <f>(C17-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>8.9518541896884481E-4</v>
       </c>
       <c r="V17" s="1">
-        <f>(D17-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>3.991396736993294E-3</v>
       </c>
     </row>
@@ -2649,27 +2971,27 @@
         <v>32</v>
       </c>
       <c r="Q18" s="1">
-        <f>(B18-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>1.6817167788680456E-3</v>
       </c>
       <c r="R18" s="1">
-        <f>(C18-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>1.9742167295122134E-5</v>
       </c>
       <c r="S18" s="1">
-        <f>(D18-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>1.1513631966516615E-4</v>
       </c>
       <c r="T18" s="1">
-        <f>(B18-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.9998794127079703E-4</v>
       </c>
       <c r="U18" s="1">
-        <f>(C18-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>5.3357208905732321E-7</v>
       </c>
       <c r="V18" s="1">
-        <f>(D18-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
@@ -2726,27 +3048,27 @@
         <v>33</v>
       </c>
       <c r="Q19" s="1">
-        <f>(B19-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>6.7715633822281323E-6</v>
       </c>
       <c r="R19" s="1">
-        <f>(C19-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-2.0340374706335578E-2</v>
       </c>
       <c r="S19" s="1">
-        <f>(D19-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-1.5879750459005533E-2</v>
       </c>
       <c r="T19" s="1">
-        <f>(B19-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.2811065858269459E-7</v>
       </c>
       <c r="U19" s="1">
-        <f>(C19-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>5.5523725549727143E-3</v>
       </c>
       <c r="V19" s="1">
-        <f>(D19-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>3.991396736993294E-3</v>
       </c>
     </row>
@@ -2789,27 +3111,27 @@
         <v>35</v>
       </c>
       <c r="Q20" s="1">
-        <f>(B20-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-5.330385169683852E-4</v>
       </c>
       <c r="R20" s="1">
-        <f>(C20-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-5.1752907034135808E-3</v>
       </c>
       <c r="S20" s="1">
-        <f>(D20-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-1.3541152547727153E-4</v>
       </c>
       <c r="T20" s="1">
-        <f>(B20-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>4.3219339213652644E-5</v>
       </c>
       <c r="U20" s="1">
-        <f>(C20-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>8.9518541896884481E-4</v>
       </c>
       <c r="V20" s="1">
-        <f>(D20-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>6.9535648218059154E-6</v>
       </c>
     </row>
@@ -2852,27 +3174,27 @@
         <v>36</v>
       </c>
       <c r="Q21" s="1">
-        <f>(B21-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-0.47652792529563692</v>
       </c>
       <c r="R21" s="1">
-        <f>(C21-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-0.46184147039662271</v>
       </c>
       <c r="S21" s="1">
-        <f>(D21-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-0.42415951671174595</v>
       </c>
       <c r="T21" s="1">
-        <f>(B21-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>0.37220694705524021</v>
       </c>
       <c r="U21" s="1">
-        <f>(C21-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>0.35699097441468741</v>
       </c>
       <c r="V21" s="1">
-        <f>(D21-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>0.31869282606990673</v>
       </c>
     </row>
@@ -2915,27 +3237,27 @@
         <v>37</v>
       </c>
       <c r="Q22" s="1">
-        <f>(B22-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-0.19620506189169409</v>
       </c>
       <c r="R22" s="1">
-        <f>(C22-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-0.46184147039662271</v>
       </c>
       <c r="S22" s="1">
-        <f>(D22-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-0.61705871320553651</v>
       </c>
       <c r="T22" s="1">
-        <f>(B22-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>0.11401104947760594</v>
       </c>
       <c r="U22" s="1">
-        <f>(C22-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>0.35699097441468741</v>
       </c>
       <c r="V22" s="1">
-        <f>(D22-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>0.52533376935065967</v>
       </c>
     </row>
@@ -2982,27 +3304,27 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1">
-        <f>(B23-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-5.6500341342072424</v>
       </c>
       <c r="R23" s="1">
-        <f>(C23-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-0.30478449450180883</v>
       </c>
       <c r="S23" s="1">
-        <f>(D23-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>1.1513631966516615E-4</v>
       </c>
       <c r="T23" s="1">
-        <f>(B23-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>10.063168903898839</v>
       </c>
       <c r="U23" s="1">
-        <f>(C23-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>0.20511172738094757</v>
       </c>
       <c r="V23" s="1">
-        <f>(D23-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
@@ -3038,27 +3360,27 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1">
-        <f>(B24-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-4.7507916214241934</v>
       </c>
       <c r="R24" s="1">
-        <f>(C24-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-0.10580567784731516</v>
       </c>
       <c r="S24" s="1">
-        <f>(D24-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>0.61120060016188527</v>
       </c>
       <c r="T24" s="1">
-        <f>(B24-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>7.9864659149347217</v>
       </c>
       <c r="U24" s="1">
-        <f>(C24-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>5.0043226008865453E-2</v>
       </c>
       <c r="V24" s="1">
-        <f>(D24-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>0.51869456338062681</v>
       </c>
     </row>
@@ -3094,27 +3416,27 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1">
-        <f>(B25-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>1.0578373047993208</v>
       </c>
       <c r="R25" s="1">
-        <f>(C25-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-3.8858507886997836E-4</v>
       </c>
       <c r="S25" s="1">
-        <f>(D25-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-0.86103899078041046</v>
       </c>
       <c r="T25" s="1">
-        <f>(B25-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.077850442998227</v>
       </c>
       <c r="U25" s="1">
-        <f>(C25-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>2.8356208458079985E-5</v>
       </c>
       <c r="V25" s="1">
-        <f>(D25-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>0.81915060744514812</v>
       </c>
     </row>
@@ -3150,27 +3472,27 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1">
-        <f>(B26-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>0.54919011707105359</v>
       </c>
       <c r="R26" s="1">
-        <f>(C26-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-5.1752907034135808E-3</v>
       </c>
       <c r="S26" s="1">
-        <f>(D26-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-0.42415951671174595</v>
       </c>
       <c r="T26" s="1">
-        <f>(B26-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>0.44974217695278207</v>
       </c>
       <c r="U26" s="1">
-        <f>(C26-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>8.9518541896884481E-4</v>
       </c>
       <c r="V26" s="1">
-        <f>(D26-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>0.31869282606990673</v>
       </c>
     </row>
@@ -3206,27 +3528,27 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1">
-        <f>(B27-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>6.7715633822281323E-6</v>
       </c>
       <c r="R27" s="1">
-        <f>(C27-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-4.682381280476986</v>
       </c>
       <c r="S27" s="1">
-        <f>(D27-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-0.42415951671174595</v>
       </c>
       <c r="T27" s="1">
-        <f>(B27-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.2811065858269459E-7</v>
       </c>
       <c r="U27" s="1">
-        <f>(C27-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>7.8334973313925884</v>
       </c>
       <c r="V27" s="1">
-        <f>(D27-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>0.31869282606990673</v>
       </c>
     </row>
@@ -3262,27 +3584,27 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1">
-        <f>(B28-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-5.6500341342072424</v>
       </c>
       <c r="R28" s="1">
-        <f>(C28-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-3.8858507886997836E-4</v>
       </c>
       <c r="S28" s="1">
-        <f>(D28-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-0.16760436696740622</v>
       </c>
       <c r="T28" s="1">
-        <f>(B28-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>10.063168903898839</v>
       </c>
       <c r="U28" s="1">
-        <f>(C28-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>2.8356208458079985E-5</v>
       </c>
       <c r="V28" s="1">
-        <f>(D28-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>9.2408894219867296E-2</v>
       </c>
     </row>
@@ -3318,27 +3640,27 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1">
-        <f>(B29-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>0.54919011707105359</v>
       </c>
       <c r="R29" s="1">
-        <f>(C29-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>1.0832922038181301</v>
       </c>
       <c r="S29" s="1">
-        <f>(D29-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-3.4670404517008037E-3</v>
       </c>
       <c r="T29" s="1">
-        <f>(B29-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>0.44974217695278207</v>
       </c>
       <c r="U29" s="1">
-        <f>(C29-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>1.1125703714888888</v>
       </c>
       <c r="V29" s="1">
-        <f>(D29-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
@@ -3374,27 +3696,27 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1">
-        <f>(B30-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-5.9377134621838058E-3</v>
       </c>
       <c r="R30" s="1">
-        <f>(C30-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-0.18810589698537231</v>
       </c>
       <c r="S30" s="1">
-        <f>(D30-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-9.1948413716858413E-2</v>
       </c>
       <c r="T30" s="1">
-        <f>(B30-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.075207572881928E-3</v>
       </c>
       <c r="U30" s="1">
-        <f>(C30-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>0.1077795950294568</v>
       </c>
       <c r="V30" s="1">
-        <f>(D30-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>4.1501040785717258E-2</v>
       </c>
     </row>
@@ -3430,27 +3752,27 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1">
-        <f>(B31-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>3.2437012615245127E-2</v>
       </c>
       <c r="R31" s="1">
-        <f>(C31-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-3.8858507886997836E-4</v>
       </c>
       <c r="S31" s="1">
-        <f>(D31-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>1.5372988766706832E-2</v>
       </c>
       <c r="T31" s="1">
-        <f>(B31-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.0344776996213336E-2</v>
       </c>
       <c r="U31" s="1">
-        <f>(C31-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>2.8356208458079985E-5</v>
       </c>
       <c r="V31" s="1">
-        <f>(D31-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>3.822472882532511E-3</v>
       </c>
     </row>
@@ -3486,27 +3808,27 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1">
-        <f>(B32-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>1.6817167788680456E-3</v>
       </c>
       <c r="R32" s="1">
-        <f>(C32-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>7.7869267368170986E-2</v>
       </c>
       <c r="S32" s="1">
-        <f>(D32-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>0.85372141827729686</v>
       </c>
       <c r="T32" s="1">
-        <f>(B32-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.9998794127079703E-4</v>
       </c>
       <c r="U32" s="1">
-        <f>(C32-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>3.325228174100265E-2</v>
       </c>
       <c r="V32" s="1">
-        <f>(D32-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>0.80988166977116494</v>
       </c>
     </row>
@@ -3542,27 +3864,27 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1">
-        <f>(B33-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-5.9377134621838058E-3</v>
       </c>
       <c r="R33" s="1">
-        <f>(C33-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-2.0340374706335578E-2</v>
       </c>
       <c r="S33" s="1">
-        <f>(D33-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>1.1513631966516615E-4</v>
       </c>
       <c r="T33" s="1">
-        <f>(B33-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.075207572881928E-3</v>
       </c>
       <c r="U33" s="1">
-        <f>(C33-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>5.5523725549727143E-3</v>
       </c>
       <c r="V33" s="1">
-        <f>(D33-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
@@ -3598,27 +3920,27 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1">
-        <f>(B34-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-5.5341657947209202E-2</v>
       </c>
       <c r="R34" s="1">
-        <f>(C34-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-5.1883837087636303E-2</v>
       </c>
       <c r="S34" s="1">
-        <f>(D34-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-1.5879750459005533E-2</v>
       </c>
       <c r="T34" s="1">
-        <f>(B34-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>2.1089658839341854E-2</v>
       </c>
       <c r="U34" s="1">
-        <f>(C34-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>1.935126896782121E-2</v>
       </c>
       <c r="V34" s="1">
-        <f>(D34-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>3.991396736993294E-3</v>
       </c>
     </row>
@@ -3654,27 +3976,27 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1">
-        <f>(B35-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>1.6817167788680456E-3</v>
       </c>
       <c r="R35" s="1">
-        <f>(C35-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-3.8858507886997836E-4</v>
       </c>
       <c r="S35" s="1">
-        <f>(D35-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>1.1513631966516615E-4</v>
       </c>
       <c r="T35" s="1">
-        <f>(B35-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.9998794127079703E-4</v>
       </c>
       <c r="U35" s="1">
-        <f>(C35-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>2.8356208458079985E-5</v>
       </c>
       <c r="V35" s="1">
-        <f>(D35-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
@@ -3710,27 +4032,27 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1">
-        <f>(B36-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-5.330385169683852E-4</v>
       </c>
       <c r="R36" s="1">
-        <f>(C36-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-5.1883837087636303E-2</v>
       </c>
       <c r="S36" s="1">
-        <f>(D36-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-4.3373541547391224E-2</v>
       </c>
       <c r="T36" s="1">
-        <f>(B36-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>4.3219339213652644E-5</v>
       </c>
       <c r="U36" s="1">
-        <f>(C36-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>1.935126896782121E-2</v>
       </c>
       <c r="V36" s="1">
-        <f>(D36-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>1.5239352435569908E-2</v>
       </c>
     </row>
@@ -3766,27 +4088,27 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1">
-        <f>(B37-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-0.31593406116123324</v>
       </c>
       <c r="R37" s="1">
-        <f>(C37-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-5.1883837087636303E-2</v>
       </c>
       <c r="S37" s="1">
-        <f>(D37-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-1.3541152547727153E-4</v>
       </c>
       <c r="T37" s="1">
-        <f>(B37-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>0.21517671192602889</v>
       </c>
       <c r="U37" s="1">
-        <f>(C37-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>1.935126896782121E-2</v>
       </c>
       <c r="V37" s="1">
-        <f>(D37-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>6.9535648218059154E-6</v>
       </c>
     </row>
@@ -3822,27 +4144,27 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1">
-        <f>(B38-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>6.7715633822281323E-6</v>
       </c>
       <c r="R38" s="1">
-        <f>(C38-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-3.8858507886997836E-4</v>
       </c>
       <c r="S38" s="1">
-        <f>(D38-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-0.27634140129903489</v>
       </c>
       <c r="T38" s="1">
-        <f>(B38-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>1.2811065858269459E-7</v>
       </c>
       <c r="U38" s="1">
-        <f>(C38-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>2.8356208458079985E-5</v>
       </c>
       <c r="V38" s="1">
-        <f>(D38-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>0.17999534517045251</v>
       </c>
     </row>
@@ -3878,27 +4200,27 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1">
-        <f>(B39-$D$45)^3</f>
+        <f t="shared" si="0"/>
         <v>-0.19620506189169409</v>
       </c>
       <c r="R39" s="1">
-        <f>(C39-$E$45)^3</f>
+        <f t="shared" si="1"/>
         <v>-5.1883837087636303E-2</v>
       </c>
       <c r="S39" s="1">
-        <f>(D39-$F$45)^3</f>
+        <f t="shared" si="2"/>
         <v>-9.1948413716858413E-2</v>
       </c>
       <c r="T39" s="1">
-        <f>(B39-$D$45)^4</f>
+        <f t="shared" si="3"/>
         <v>0.11401104947760594</v>
       </c>
       <c r="U39" s="1">
-        <f>(C39-$E$45)^4</f>
+        <f t="shared" si="4"/>
         <v>1.935126896782121E-2</v>
       </c>
       <c r="V39" s="1">
-        <f>(D39-$F$45)^4</f>
+        <f t="shared" si="5"/>
         <v>4.1501040785717258E-2</v>
       </c>
     </row>
@@ -3931,64 +4253,75 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1">
-        <f>SUM(Q3:Q39)</f>
+        <f t="shared" ref="Q40:V40" si="6">SUM(Q3:Q39)</f>
         <v>-13.598068663257806</v>
       </c>
       <c r="R40" s="1">
-        <f>SUM(R3:R39)</f>
+        <f t="shared" si="6"/>
         <v>-1.9120014609204357</v>
       </c>
       <c r="S40" s="1">
-        <f>SUM(S3:S39)</f>
+        <f t="shared" si="6"/>
         <v>0.76856099342584061</v>
       </c>
       <c r="T40" s="1">
-        <f>SUM(T3:T39)</f>
+        <f t="shared" si="6"/>
         <v>31.934339979862937</v>
       </c>
       <c r="U40" s="1">
-        <f>SUM(U3:U39)</f>
+        <f t="shared" si="6"/>
         <v>13.172295338874322</v>
       </c>
       <c r="V40" s="1">
-        <f>SUM(V3:V39)</f>
+        <f t="shared" si="6"/>
         <v>6.3315645312222379</v>
       </c>
     </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="E43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="E43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="5" t="s">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="18"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="12">
         <f>SUMPRODUCT(K3:K19,H3:H19)/K23</f>
         <v>8.1810810810810803</v>
@@ -4001,28 +4334,53 @@
         <f>SUMPRODUCT(M3:M22,J3:J22)/M23</f>
         <v>8.0513513513513519</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="6"/>
+      <c r="G45" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+      <c r="G46" s="19"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+      <c r="L46" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="15">
+        <v>8.1810810810810821</v>
+      </c>
+      <c r="N46" s="15">
+        <v>7.9729729729729746</v>
+      </c>
+      <c r="O46" s="15">
+        <v>8.0513513513513519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="12">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K23</f>
         <v>0.43937180423666905</v>
@@ -4035,308 +4393,662 @@
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/M23</f>
         <v>0.2770927684441199</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="G47" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+      <c r="L47" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0.11047521142730382</v>
+      </c>
+      <c r="N47" s="15">
+        <v>9.2158683544647124E-2</v>
+      </c>
+      <c r="O47" s="15">
+        <v>8.7732669773978686E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+      <c r="L48" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N48" s="15">
+        <v>7.9</v>
+      </c>
+      <c r="O48" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="12">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="23">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K23-1)</f>
         <v>0.45157657657657652</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="23">
         <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/(L23-1)</f>
         <v>0.31424924924924935</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="23">
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/(M23-1)</f>
         <v>0.28478978978978986</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+      <c r="L49" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N49" s="15">
+        <v>7.9</v>
+      </c>
+      <c r="O49" s="15">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="12">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="22">
         <f>SQRT(D47)</f>
         <v>0.6628512685638227</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E50" s="22">
         <f>SQRT(E47)</f>
         <v>0.55295210126788286</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F50" s="22">
         <f>SQRT(F47)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+      <c r="L50" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M50" s="15">
+        <v>0.67199447659677736</v>
+      </c>
+      <c r="N50" s="15">
+        <v>0.56057938710699062</v>
+      </c>
+      <c r="O50" s="15">
+        <v>0.53365699638418473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12">
+        <f>D50/D45</f>
+        <v>8.1022454366902683E-2</v>
+      </c>
+      <c r="E51" s="12">
+        <f>E50/E45</f>
+        <v>6.935331439631072E-2</v>
+      </c>
+      <c r="F51" s="12">
+        <f>F50/F45</f>
+        <v>6.5379834474062676E-2</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+      <c r="L51" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0.45157657657657668</v>
+      </c>
+      <c r="N51" s="15">
+        <v>0.31424924924924924</v>
+      </c>
+      <c r="O51" s="15">
+        <v>0.2847897897897898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="12">
-        <f>D51/D45</f>
-        <v>8.1022454366902683E-2</v>
-      </c>
-      <c r="E53" s="12">
-        <f>E51/E45</f>
-        <v>6.935331439631072E-2</v>
-      </c>
-      <c r="F53" s="12">
-        <f>F51/F45</f>
-        <v>6.5379834474062676E-2</v>
-      </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+      <c r="G52" s="19"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+      <c r="L52" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M52" s="15">
+        <v>1.8723928604691702</v>
+      </c>
+      <c r="N52" s="15">
+        <v>1.1105015755698338</v>
+      </c>
+      <c r="O52" s="15">
+        <v>-0.70511515342786346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+      <c r="L53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M53" s="15">
+        <v>-1.315864887856351</v>
+      </c>
+      <c r="N53" s="15">
+        <v>-0.3187190523834238</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0.14849878333758657</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="12">
-        <f>Q40/(K40*D51^3)</f>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12">
+        <f>Q40/(K40*D50^3)</f>
         <v>-1.2619066541331863</v>
       </c>
-      <c r="E55" s="12">
-        <f>R40/(L40*E51^3)</f>
+      <c r="E54" s="12">
+        <f>R40/(L40*E50^3)</f>
         <v>-0.3056496884394217</v>
       </c>
-      <c r="F55" s="12">
-        <f>S40/(M40*F51^3)</f>
+      <c r="F54" s="12">
+        <f>S40/(M40*F50^3)</f>
         <v>0.14240945598119886</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+      <c r="G54" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+      <c r="L54" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M54" s="15">
+        <v>2.7999999999999989</v>
+      </c>
+      <c r="N54" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="O54" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+      <c r="L55" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M55" s="15">
+        <v>6.4</v>
+      </c>
+      <c r="N55" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="O55" s="15">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+      <c r="G56" s="19"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+      <c r="L56" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M56" s="15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N56" s="15">
+        <v>9</v>
+      </c>
+      <c r="O56" s="15">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+      <c r="L57" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M57" s="15">
+        <v>302.70000000000005</v>
+      </c>
+      <c r="N57" s="15">
+        <v>295.00000000000006</v>
+      </c>
+      <c r="O57" s="15">
+        <v>297.90000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="12">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="12">
         <f>T40/(K40*D47^2)-3</f>
         <v>1.4708680584490494</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <f>U40/(L40*E47^2)-3</f>
         <v>0.80811175067843388</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F58" s="12">
         <f>V40/(M40*F47^2)-3</f>
         <v>-0.77126245071575994</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="12">
-        <f>H12</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E59" s="12">
-        <f>I11</f>
-        <v>7.9</v>
-      </c>
-      <c r="F59" s="12" t="str">
-        <f>J11&amp;", "&amp;J13&amp;", "&amp;J17</f>
-        <v>7.9, 8.1, 8.5</v>
-      </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
+      <c r="G58" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+      <c r="L58" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M58" s="15">
+        <v>37</v>
+      </c>
+      <c r="N58" s="15">
+        <v>37</v>
+      </c>
+      <c r="O58" s="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="12">
-        <f>E21</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E61" s="12">
-        <f>F21</f>
-        <v>7.9</v>
-      </c>
-      <c r="F61" s="12">
-        <f>G21</f>
-        <v>8</v>
-      </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+      <c r="L60" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="12">
+        <f>H12</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E65" s="12">
+        <f>I11</f>
+        <v>7.9</v>
+      </c>
+      <c r="F65" s="12" t="str">
+        <f>J11&amp;", "&amp;J13&amp;", "&amp;J17</f>
+        <v>7.9, 8.1, 8.5</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="33"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="22">
+        <f>E21</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E71" s="22">
+        <f>F21</f>
+        <v>7.9</v>
+      </c>
+      <c r="F71" s="22">
+        <f>G21</f>
+        <v>8</v>
+      </c>
+      <c r="G71" s="19"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="H3:H39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G39">
     <sortCondition ref="G3"/>
   </sortState>
-  <mergeCells count="66">
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G53:I54"/>
-    <mergeCell ref="G55:I56"/>
-    <mergeCell ref="G57:I58"/>
-    <mergeCell ref="G59:I60"/>
-    <mergeCell ref="G61:I62"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:I46"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:I48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:I50"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="A53:C54"/>
-    <mergeCell ref="A55:C56"/>
-    <mergeCell ref="A57:C58"/>
+  <mergeCells count="57">
+    <mergeCell ref="L60:O66"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="G47:J50"/>
+    <mergeCell ref="G51:J53"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G54:J57"/>
+    <mergeCell ref="G58:J64"/>
+    <mergeCell ref="G65:J70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="A51:C53"/>
+    <mergeCell ref="A54:C57"/>
+    <mergeCell ref="A58:C64"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -4349,10 +5061,35 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G51:I52"/>
-    <mergeCell ref="A51:C52"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="A65:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/САВР/Лабораторные/lab2/Lab2_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab2/Lab2_Var№5_Кендысь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C62FEC-D690-4972-9CA6-C9CD78C59EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C142DD4-D0A7-4F9B-8D28-BD2FA97E79C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Год</t>
   </si>
@@ -1004,16 +1004,10 @@
     </r>
   </si>
   <si>
-    <t>Выборочная дисперсия первого ряда чуть больше выборочных дисперсий остальных  двух рядов. Стандартное отклонение, соответственно, тоже больше. Таким образом, в январе наблюдался больший разброс температур.</t>
-  </si>
-  <si>
     <t>Для всех трёх рядов можно сделать вывод, что выборка однородна и наблюдается высокая степень концентрации относительно среднего.</t>
   </si>
   <si>
     <t>Для первого ряда характерна большая асимметрия, распределение скошено влево. Для второго ряда характерна умеренная скошенность влево. Для третьего ряда - малая скошенность вправо.</t>
-  </si>
-  <si>
-    <t>Для первых двух рядов эмпирические кривые распределений приближены к нормальному. Третий же ряд хоть и не считается приближенно нормальным, но значение его эксцессы относительно близко к порогу -0.5. Для первого и второго ряда распределение имеет острый пик и является высоковершинным, а для третьего распределение имеет плосковершинную форму.</t>
   </si>
   <si>
     <t>Первые два ряда имеют по одной моде, которая близка к соответствующему среднему и равна медиане, т.е. приближённо выполняется свойство нормального распределения. Третий же ряд является полимодальным, что может говорить о возможной неоднородности распределения.</t>
@@ -1043,6 +1037,12 @@
       </rPr>
       <t>Среднее арифметическое (mean), выборочная дисперсия (исправленная, sample variance), медиана (median) и мода (mean) были вычислены верно, а коэффициенты асимметрии (skewness) и эксцесса (kurtosis) имеют похожие значения (отличаются, т.к. пакет использует немного другие формулы, более уточнённые). Другие результаты пакета также совпадают с действительностью. Пакет выдаёт только одну моду.</t>
     </r>
+  </si>
+  <si>
+    <t>Выборочная дисперсия первого ряда чуть больше выборочных дисперсий двух других рядов. Стандартное отклонение, соответственно, тоже больше. Таким образом, в январе наблюдался больший разброс температур.</t>
+  </si>
+  <si>
+    <t>Для первых двух рядов эмпирические кривые распределений приближены к нормальному. Третий же ряд хоть и не считается приближенно нормальным, но значение его эксцессы относительно близко к порогу -0.5. Для первого и второго ряда распределение имеет острый пик и является высоковершинным, а для третьего ряда распределение имеет плосковершинную форму.</t>
   </si>
 </sst>
 </file>
@@ -1283,47 +1283,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1359,6 +1323,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,76 +1665,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1753,12 +1753,12 @@
       <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1816,27 +1816,27 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q39" si="0">(B3-$D$45)^3</f>
+        <f>(B3-$D$45)^3</f>
         <v>7.3517363236136266E-2</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R39" si="1">(C3-$E$45)^3</f>
+        <f t="shared" ref="R3:R39" si="0">(C3-$E$45)^3</f>
         <v>-3.8858507886997836E-4</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S39" si="2">(D3-$F$45)^3</f>
+        <f t="shared" ref="S3:S39" si="1">(D3-$F$45)^3</f>
         <v>9.0306516889423774E-2</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T39" si="3">(B3-$D$45)^4</f>
+        <f t="shared" ref="T3:T39" si="2">(B3-$D$45)^4</f>
         <v>3.0797814328651706E-2</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U39" si="4">(C3-$E$45)^4</f>
+        <f t="shared" ref="U3:U39" si="3">(C3-$E$45)^4</f>
         <v>2.8356208458079985E-5</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V39" si="5">(D3-$F$45)^4</f>
+        <f t="shared" ref="V3:V39" si="4">(D3-$F$45)^4</f>
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
@@ -1893,27 +1893,27 @@
         <v>2</v>
       </c>
       <c r="Q4" s="1">
+        <f t="shared" ref="Q3:Q39" si="5">(B4-$D$45)^3</f>
+        <v>3.2437012615245127E-2</v>
+      </c>
+      <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>3.2437012615245127E-2</v>
-      </c>
-      <c r="R4" s="1">
+        <v>1.17012615244898E-2</v>
+      </c>
+      <c r="S4" s="1">
         <f t="shared" si="1"/>
-        <v>1.17012615244898E-2</v>
-      </c>
-      <c r="S4" s="1">
+        <v>4.2380293368605923E-2</v>
+      </c>
+      <c r="T4" s="1">
         <f t="shared" si="2"/>
-        <v>4.2380293368605923E-2</v>
-      </c>
-      <c r="T4" s="1">
+        <v>1.0344776996213336E-2</v>
+      </c>
+      <c r="U4" s="1">
         <f t="shared" si="3"/>
-        <v>1.0344776996213336E-2</v>
-      </c>
-      <c r="U4" s="1">
+        <v>2.6565026163706301E-3</v>
+      </c>
+      <c r="V4" s="1">
         <f t="shared" si="4"/>
-        <v>2.6565026163706301E-3</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="5"/>
         <v>1.477583201229773E-2</v>
       </c>
     </row>
@@ -1970,27 +1970,27 @@
         <v>5</v>
       </c>
       <c r="Q5" s="1">
+        <f t="shared" si="5"/>
+        <v>7.3517363236136266E-2</v>
+      </c>
+      <c r="R5" s="1">
         <f t="shared" si="0"/>
-        <v>7.3517363236136266E-2</v>
-      </c>
-      <c r="R5" s="1">
+        <v>3.497445363551982E-2</v>
+      </c>
+      <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>3.497445363551982E-2</v>
-      </c>
-      <c r="S5" s="1">
+        <v>9.0306516889423774E-2</v>
+      </c>
+      <c r="T5" s="1">
         <f t="shared" si="2"/>
-        <v>9.0306516889423774E-2</v>
-      </c>
-      <c r="T5" s="1">
+        <v>3.0797814328651706E-2</v>
+      </c>
+      <c r="U5" s="1">
         <f t="shared" si="3"/>
-        <v>3.0797814328651706E-2</v>
-      </c>
-      <c r="U5" s="1">
+        <v>1.1437591594318614E-2</v>
+      </c>
+      <c r="V5" s="1">
         <f t="shared" si="4"/>
-        <v>1.1437591594318614E-2</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="5"/>
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
@@ -2047,27 +2047,27 @@
         <v>6</v>
       </c>
       <c r="Q6" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0491797129489033E-2</v>
+      </c>
+      <c r="R6" s="1">
         <f t="shared" si="0"/>
-        <v>1.0491797129489033E-2</v>
-      </c>
-      <c r="R6" s="1">
+        <v>7.7869267368170986E-2</v>
+      </c>
+      <c r="S6" s="1">
         <f t="shared" si="1"/>
-        <v>7.7869267368170986E-2</v>
-      </c>
-      <c r="S6" s="1">
+        <v>9.0306516889423774E-2</v>
+      </c>
+      <c r="T6" s="1">
         <f t="shared" si="2"/>
-        <v>9.0306516889423774E-2</v>
-      </c>
-      <c r="T6" s="1">
+        <v>2.2968528851043672E-3</v>
+      </c>
+      <c r="U6" s="1">
         <f t="shared" si="3"/>
-        <v>2.2968528851043672E-3</v>
-      </c>
-      <c r="U6" s="1">
+        <v>3.325228174100265E-2</v>
+      </c>
+      <c r="V6" s="1">
         <f t="shared" si="4"/>
-        <v>3.325228174100265E-2</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="5"/>
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
@@ -2124,27 +2124,27 @@
         <v>7</v>
       </c>
       <c r="Q7" s="1">
+        <f>(B7-$D$45)^3</f>
+        <v>0.37156922590962205</v>
+      </c>
+      <c r="R7" s="1">
         <f t="shared" si="0"/>
-        <v>0.37156922590962205</v>
-      </c>
-      <c r="R7" s="1">
+        <v>7.7869267368170986E-2</v>
+      </c>
+      <c r="S7" s="1">
         <f t="shared" si="1"/>
-        <v>7.7869267368170986E-2</v>
-      </c>
-      <c r="S7" s="1">
+        <v>0.4195987009653922</v>
+      </c>
+      <c r="T7" s="1">
         <f t="shared" si="2"/>
-        <v>0.4195987009653922</v>
-      </c>
-      <c r="T7" s="1">
+        <v>0.26712814619448544</v>
+      </c>
+      <c r="U7" s="1">
         <f t="shared" si="3"/>
-        <v>0.26712814619448544</v>
-      </c>
-      <c r="U7" s="1">
+        <v>3.325228174100265E-2</v>
+      </c>
+      <c r="V7" s="1">
         <f t="shared" si="4"/>
-        <v>3.325228174100265E-2</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="5"/>
         <v>0.31413200045246936</v>
       </c>
     </row>
@@ -2201,27 +2201,27 @@
         <v>9</v>
       </c>
       <c r="Q8" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2437012615245127E-2</v>
+      </c>
+      <c r="R8" s="1">
         <f t="shared" si="0"/>
-        <v>3.2437012615245127E-2</v>
-      </c>
-      <c r="R8" s="1">
+        <v>1.17012615244898E-2</v>
+      </c>
+      <c r="S8" s="1">
         <f t="shared" si="1"/>
-        <v>1.17012615244898E-2</v>
-      </c>
-      <c r="S8" s="1">
+        <v>-3.4670404517008037E-3</v>
+      </c>
+      <c r="T8" s="1">
         <f t="shared" si="2"/>
-        <v>-3.4670404517008037E-3</v>
-      </c>
-      <c r="T8" s="1">
+        <v>1.0344776996213336E-2</v>
+      </c>
+      <c r="U8" s="1">
         <f t="shared" si="3"/>
-        <v>1.0344776996213336E-2</v>
-      </c>
-      <c r="U8" s="1">
+        <v>2.6565026163706301E-3</v>
+      </c>
+      <c r="V8" s="1">
         <f t="shared" si="4"/>
-        <v>2.6565026163706301E-3</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="5"/>
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
@@ -2278,27 +2278,27 @@
         <v>10</v>
       </c>
       <c r="Q9" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R9" s="1">
         <f t="shared" si="0"/>
-        <v>1.6817167788680456E-3</v>
-      </c>
-      <c r="R9" s="1">
+        <v>1.17012615244898E-2</v>
+      </c>
+      <c r="S9" s="1">
         <f t="shared" si="1"/>
-        <v>1.17012615244898E-2</v>
-      </c>
-      <c r="S9" s="1">
+        <v>9.0306516889423774E-2</v>
+      </c>
+      <c r="T9" s="1">
         <f t="shared" si="2"/>
-        <v>9.0306516889423774E-2</v>
-      </c>
-      <c r="T9" s="1">
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U9" s="1">
         <f t="shared" si="3"/>
-        <v>1.9998794127079703E-4</v>
-      </c>
-      <c r="U9" s="1">
+        <v>2.6565026163706301E-3</v>
+      </c>
+      <c r="V9" s="1">
         <f t="shared" si="4"/>
-        <v>2.6565026163706301E-3</v>
-      </c>
-      <c r="V9" s="1">
-        <f t="shared" si="5"/>
         <v>4.0515896766606288E-2</v>
       </c>
     </row>
@@ -2355,27 +2355,27 @@
         <v>13</v>
       </c>
       <c r="Q10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54919011707105359</v>
+      </c>
+      <c r="R10" s="1">
         <f t="shared" si="0"/>
-        <v>0.54919011707105359</v>
-      </c>
-      <c r="R10" s="1">
+        <v>1.0832922038181301</v>
+      </c>
+      <c r="S10" s="1">
         <f t="shared" si="1"/>
-        <v>1.0832922038181301</v>
-      </c>
-      <c r="S10" s="1">
+        <v>1.153161155311627</v>
+      </c>
+      <c r="T10" s="1">
         <f t="shared" si="2"/>
-        <v>1.153161155311627</v>
-      </c>
-      <c r="T10" s="1">
+        <v>0.44974217695278207</v>
+      </c>
+      <c r="U10" s="1">
         <f t="shared" si="3"/>
-        <v>0.44974217695278207</v>
-      </c>
-      <c r="U10" s="1">
+        <v>1.1125703714888888</v>
+      </c>
+      <c r="V10" s="1">
         <f t="shared" si="4"/>
-        <v>1.1125703714888888</v>
-      </c>
-      <c r="V10" s="1">
-        <f t="shared" si="5"/>
         <v>1.2092608871916508</v>
       </c>
     </row>
@@ -2432,27 +2432,27 @@
         <v>17</v>
       </c>
       <c r="Q11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0491797129489033E-2</v>
+      </c>
+      <c r="R11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0491797129489033E-2</v>
-      </c>
-      <c r="R11" s="1">
+        <v>1.0832922038181301</v>
+      </c>
+      <c r="S11" s="1">
         <f t="shared" si="1"/>
-        <v>1.0832922038181301</v>
-      </c>
-      <c r="S11" s="1">
+        <v>0.61120060016188527</v>
+      </c>
+      <c r="T11" s="1">
         <f t="shared" si="2"/>
-        <v>0.61120060016188527</v>
-      </c>
-      <c r="T11" s="1">
+        <v>2.2968528851043672E-3</v>
+      </c>
+      <c r="U11" s="1">
         <f t="shared" si="3"/>
-        <v>2.2968528851043672E-3</v>
-      </c>
-      <c r="U11" s="1">
+        <v>1.1125703714888888</v>
+      </c>
+      <c r="V11" s="1">
         <f t="shared" si="4"/>
-        <v>1.1125703714888888</v>
-      </c>
-      <c r="V11" s="1">
-        <f t="shared" si="5"/>
         <v>0.51869456338062681</v>
       </c>
     </row>
@@ -2509,27 +2509,27 @@
         <v>19</v>
       </c>
       <c r="Q12" s="1">
+        <f t="shared" si="5"/>
+        <v>7.3517363236136266E-2</v>
+      </c>
+      <c r="R12" s="1">
         <f t="shared" si="0"/>
-        <v>7.3517363236136266E-2</v>
-      </c>
-      <c r="R12" s="1">
+        <v>0.24652375969833737</v>
+      </c>
+      <c r="S12" s="1">
         <f t="shared" si="1"/>
-        <v>0.24652375969833737</v>
-      </c>
-      <c r="S12" s="1">
+        <v>0.16515165932916032</v>
+      </c>
+      <c r="T12" s="1">
         <f t="shared" si="2"/>
-        <v>0.16515165932916032</v>
-      </c>
-      <c r="T12" s="1">
+        <v>3.0797814328651706E-2</v>
+      </c>
+      <c r="U12" s="1">
         <f t="shared" si="3"/>
-        <v>3.0797814328651706E-2</v>
-      </c>
-      <c r="U12" s="1">
+        <v>0.15457706013517319</v>
+      </c>
+      <c r="V12" s="1">
         <f t="shared" si="4"/>
-        <v>0.15457706013517319</v>
-      </c>
-      <c r="V12" s="1">
-        <f t="shared" si="5"/>
         <v>9.061023471302565E-2</v>
       </c>
     </row>
@@ -2586,27 +2586,27 @@
         <v>23</v>
       </c>
       <c r="Q13" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0491797129489033E-2</v>
+      </c>
+      <c r="R13" s="1">
         <f t="shared" si="0"/>
-        <v>1.0491797129489033E-2</v>
-      </c>
-      <c r="R13" s="1">
+        <v>0.56566473851499233</v>
+      </c>
+      <c r="S13" s="1">
         <f t="shared" si="1"/>
-        <v>0.56566473851499233</v>
-      </c>
-      <c r="S13" s="1">
+        <v>-3.4670404517008037E-3</v>
+      </c>
+      <c r="T13" s="1">
         <f t="shared" si="2"/>
-        <v>-3.4670404517008037E-3</v>
-      </c>
-      <c r="T13" s="1">
+        <v>2.2968528851043672E-3</v>
+      </c>
+      <c r="U13" s="1">
         <f t="shared" si="3"/>
-        <v>2.2968528851043672E-3</v>
-      </c>
-      <c r="U13" s="1">
+        <v>0.46782002698807429</v>
+      </c>
+      <c r="V13" s="1">
         <f t="shared" si="4"/>
-        <v>0.46782002698807429</v>
-      </c>
-      <c r="V13" s="1">
-        <f t="shared" si="5"/>
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
@@ -2663,27 +2663,27 @@
         <v>24</v>
       </c>
       <c r="Q14" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2437012615245127E-2</v>
+      </c>
+      <c r="R14" s="1">
         <f t="shared" si="0"/>
-        <v>3.2437012615245127E-2</v>
-      </c>
-      <c r="R14" s="1">
+        <v>0.14638570272244353</v>
+      </c>
+      <c r="S14" s="1">
         <f t="shared" si="1"/>
-        <v>0.14638570272244353</v>
-      </c>
-      <c r="S14" s="1">
+        <v>1.5372988766706832E-2</v>
+      </c>
+      <c r="T14" s="1">
         <f t="shared" si="2"/>
-        <v>1.5372988766706832E-2</v>
-      </c>
-      <c r="T14" s="1">
+        <v>1.0344776996213336E-2</v>
+      </c>
+      <c r="U14" s="1">
         <f t="shared" si="3"/>
-        <v>1.0344776996213336E-2</v>
-      </c>
-      <c r="U14" s="1">
+        <v>7.7149221705071352E-2</v>
+      </c>
+      <c r="V14" s="1">
         <f t="shared" si="4"/>
-        <v>7.7149221705071352E-2</v>
-      </c>
-      <c r="V14" s="1">
-        <f t="shared" si="5"/>
         <v>3.822472882532511E-3</v>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
         <v>26</v>
       </c>
       <c r="Q15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.23708346988332546</v>
+      </c>
+      <c r="R15" s="1">
         <f t="shared" si="0"/>
-        <v>0.23708346988332546</v>
-      </c>
-      <c r="R15" s="1">
+        <v>1.17012615244898E-2</v>
+      </c>
+      <c r="S15" s="1">
         <f t="shared" si="1"/>
-        <v>1.17012615244898E-2</v>
-      </c>
-      <c r="S15" s="1">
+        <v>3.2846030837264456E-3</v>
+      </c>
+      <c r="T15" s="1">
         <f t="shared" si="2"/>
-        <v>3.2846030837264456E-3</v>
-      </c>
-      <c r="T15" s="1">
+        <v>0.14673544487373422</v>
+      </c>
+      <c r="U15" s="1">
         <f t="shared" si="3"/>
-        <v>0.14673544487373422</v>
-      </c>
-      <c r="U15" s="1">
+        <v>2.6565026163706301E-3</v>
+      </c>
+      <c r="V15" s="1">
         <f t="shared" si="4"/>
-        <v>2.6565026163706301E-3</v>
-      </c>
-      <c r="V15" s="1">
-        <f t="shared" si="5"/>
         <v>4.8825180974311602E-4</v>
       </c>
     </row>
@@ -2817,27 +2817,27 @@
         <v>27</v>
       </c>
       <c r="Q16" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R16" s="1">
         <f t="shared" si="0"/>
-        <v>1.6817167788680456E-3</v>
-      </c>
-      <c r="R16" s="1">
+        <v>3.497445363551982E-2</v>
+      </c>
+      <c r="S16" s="1">
         <f t="shared" si="1"/>
-        <v>3.497445363551982E-2</v>
-      </c>
-      <c r="S16" s="1">
+        <v>-3.4670404517008037E-3</v>
+      </c>
+      <c r="T16" s="1">
         <f t="shared" si="2"/>
-        <v>-3.4670404517008037E-3</v>
-      </c>
-      <c r="T16" s="1">
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U16" s="1">
         <f t="shared" si="3"/>
-        <v>1.9998794127079703E-4</v>
-      </c>
-      <c r="U16" s="1">
+        <v>1.1437591594318614E-2</v>
+      </c>
+      <c r="V16" s="1">
         <f t="shared" si="4"/>
-        <v>1.1437591594318614E-2</v>
-      </c>
-      <c r="V16" s="1">
-        <f t="shared" si="5"/>
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
@@ -2894,27 +2894,27 @@
         <v>31</v>
       </c>
       <c r="Q17" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R17" s="1">
         <f t="shared" si="0"/>
-        <v>1.6817167788680456E-3</v>
-      </c>
-      <c r="R17" s="1">
+        <v>-5.1752907034135808E-3</v>
+      </c>
+      <c r="S17" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1752907034135808E-3</v>
-      </c>
-      <c r="S17" s="1">
+        <v>-1.5879750459005533E-2</v>
+      </c>
+      <c r="T17" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5879750459005533E-2</v>
-      </c>
-      <c r="T17" s="1">
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U17" s="1">
         <f t="shared" si="3"/>
-        <v>1.9998794127079703E-4</v>
-      </c>
-      <c r="U17" s="1">
+        <v>8.9518541896884481E-4</v>
+      </c>
+      <c r="V17" s="1">
         <f t="shared" si="4"/>
-        <v>8.9518541896884481E-4</v>
-      </c>
-      <c r="V17" s="1">
-        <f t="shared" si="5"/>
         <v>3.991396736993294E-3</v>
       </c>
     </row>
@@ -2971,27 +2971,27 @@
         <v>32</v>
       </c>
       <c r="Q18" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R18" s="1">
         <f t="shared" si="0"/>
-        <v>1.6817167788680456E-3</v>
-      </c>
-      <c r="R18" s="1">
+        <v>1.9742167295122134E-5</v>
+      </c>
+      <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>1.9742167295122134E-5</v>
-      </c>
-      <c r="S18" s="1">
+        <v>1.1513631966516615E-4</v>
+      </c>
+      <c r="T18" s="1">
         <f t="shared" si="2"/>
-        <v>1.1513631966516615E-4</v>
-      </c>
-      <c r="T18" s="1">
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U18" s="1">
         <f t="shared" si="3"/>
-        <v>1.9998794127079703E-4</v>
-      </c>
-      <c r="U18" s="1">
+        <v>5.3357208905732321E-7</v>
+      </c>
+      <c r="V18" s="1">
         <f t="shared" si="4"/>
-        <v>5.3357208905732321E-7</v>
-      </c>
-      <c r="V18" s="1">
-        <f t="shared" si="5"/>
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
@@ -3048,27 +3048,27 @@
         <v>33</v>
       </c>
       <c r="Q19" s="1">
+        <f t="shared" si="5"/>
+        <v>6.7715633822281323E-6</v>
+      </c>
+      <c r="R19" s="1">
         <f t="shared" si="0"/>
-        <v>6.7715633822281323E-6</v>
-      </c>
-      <c r="R19" s="1">
+        <v>-2.0340374706335578E-2</v>
+      </c>
+      <c r="S19" s="1">
         <f t="shared" si="1"/>
-        <v>-2.0340374706335578E-2</v>
-      </c>
-      <c r="S19" s="1">
+        <v>-1.5879750459005533E-2</v>
+      </c>
+      <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5879750459005533E-2</v>
-      </c>
-      <c r="T19" s="1">
+        <v>1.2811065858269459E-7</v>
+      </c>
+      <c r="U19" s="1">
         <f t="shared" si="3"/>
-        <v>1.2811065858269459E-7</v>
-      </c>
-      <c r="U19" s="1">
+        <v>5.5523725549727143E-3</v>
+      </c>
+      <c r="V19" s="1">
         <f t="shared" si="4"/>
-        <v>5.5523725549727143E-3</v>
-      </c>
-      <c r="V19" s="1">
-        <f t="shared" si="5"/>
         <v>3.991396736993294E-3</v>
       </c>
     </row>
@@ -3111,27 +3111,27 @@
         <v>35</v>
       </c>
       <c r="Q20" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.330385169683852E-4</v>
+      </c>
+      <c r="R20" s="1">
         <f t="shared" si="0"/>
-        <v>-5.330385169683852E-4</v>
-      </c>
-      <c r="R20" s="1">
+        <v>-5.1752907034135808E-3</v>
+      </c>
+      <c r="S20" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1752907034135808E-3</v>
-      </c>
-      <c r="S20" s="1">
+        <v>-1.3541152547727153E-4</v>
+      </c>
+      <c r="T20" s="1">
         <f t="shared" si="2"/>
-        <v>-1.3541152547727153E-4</v>
-      </c>
-      <c r="T20" s="1">
+        <v>4.3219339213652644E-5</v>
+      </c>
+      <c r="U20" s="1">
         <f t="shared" si="3"/>
-        <v>4.3219339213652644E-5</v>
-      </c>
-      <c r="U20" s="1">
+        <v>8.9518541896884481E-4</v>
+      </c>
+      <c r="V20" s="1">
         <f t="shared" si="4"/>
-        <v>8.9518541896884481E-4</v>
-      </c>
-      <c r="V20" s="1">
-        <f t="shared" si="5"/>
         <v>6.9535648218059154E-6</v>
       </c>
     </row>
@@ -3174,27 +3174,27 @@
         <v>36</v>
       </c>
       <c r="Q21" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.47652792529563692</v>
+      </c>
+      <c r="R21" s="1">
         <f t="shared" si="0"/>
-        <v>-0.47652792529563692</v>
-      </c>
-      <c r="R21" s="1">
+        <v>-0.46184147039662271</v>
+      </c>
+      <c r="S21" s="1">
         <f t="shared" si="1"/>
-        <v>-0.46184147039662271</v>
-      </c>
-      <c r="S21" s="1">
+        <v>-0.42415951671174595</v>
+      </c>
+      <c r="T21" s="1">
         <f t="shared" si="2"/>
-        <v>-0.42415951671174595</v>
-      </c>
-      <c r="T21" s="1">
+        <v>0.37220694705524021</v>
+      </c>
+      <c r="U21" s="1">
         <f t="shared" si="3"/>
-        <v>0.37220694705524021</v>
-      </c>
-      <c r="U21" s="1">
+        <v>0.35699097441468741</v>
+      </c>
+      <c r="V21" s="1">
         <f t="shared" si="4"/>
-        <v>0.35699097441468741</v>
-      </c>
-      <c r="V21" s="1">
-        <f t="shared" si="5"/>
         <v>0.31869282606990673</v>
       </c>
     </row>
@@ -3237,27 +3237,27 @@
         <v>37</v>
       </c>
       <c r="Q22" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.19620506189169409</v>
+      </c>
+      <c r="R22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.19620506189169409</v>
-      </c>
-      <c r="R22" s="1">
+        <v>-0.46184147039662271</v>
+      </c>
+      <c r="S22" s="1">
         <f t="shared" si="1"/>
-        <v>-0.46184147039662271</v>
-      </c>
-      <c r="S22" s="1">
+        <v>-0.61705871320553651</v>
+      </c>
+      <c r="T22" s="1">
         <f t="shared" si="2"/>
-        <v>-0.61705871320553651</v>
-      </c>
-      <c r="T22" s="1">
+        <v>0.11401104947760594</v>
+      </c>
+      <c r="U22" s="1">
         <f t="shared" si="3"/>
-        <v>0.11401104947760594</v>
-      </c>
-      <c r="U22" s="1">
+        <v>0.35699097441468741</v>
+      </c>
+      <c r="V22" s="1">
         <f t="shared" si="4"/>
-        <v>0.35699097441468741</v>
-      </c>
-      <c r="V22" s="1">
-        <f t="shared" si="5"/>
         <v>0.52533376935065967</v>
       </c>
     </row>
@@ -3283,48 +3283,37 @@
       <c r="G23" s="1">
         <v>8.1</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1">
-        <f>SUM(K3:K19)</f>
-        <v>37</v>
-      </c>
-      <c r="L23" s="1">
-        <f>SUM(L3:L19)</f>
-        <v>37</v>
-      </c>
-      <c r="M23" s="1">
-        <f>SUM(M3:M22)</f>
-        <v>37</v>
-      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.6500341342072424</v>
+      </c>
+      <c r="R23" s="1">
         <f t="shared" si="0"/>
-        <v>-5.6500341342072424</v>
-      </c>
-      <c r="R23" s="1">
+        <v>-0.30478449450180883</v>
+      </c>
+      <c r="S23" s="1">
         <f t="shared" si="1"/>
-        <v>-0.30478449450180883</v>
-      </c>
-      <c r="S23" s="1">
+        <v>1.1513631966516615E-4</v>
+      </c>
+      <c r="T23" s="1">
         <f t="shared" si="2"/>
-        <v>1.1513631966516615E-4</v>
-      </c>
-      <c r="T23" s="1">
+        <v>10.063168903898839</v>
+      </c>
+      <c r="U23" s="1">
         <f t="shared" si="3"/>
-        <v>10.063168903898839</v>
-      </c>
-      <c r="U23" s="1">
+        <v>0.20511172738094757</v>
+      </c>
+      <c r="V23" s="1">
         <f t="shared" si="4"/>
-        <v>0.20511172738094757</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" si="5"/>
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
@@ -3360,27 +3349,27 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.7507916214241934</v>
+      </c>
+      <c r="R24" s="1">
         <f t="shared" si="0"/>
-        <v>-4.7507916214241934</v>
-      </c>
-      <c r="R24" s="1">
+        <v>-0.10580567784731516</v>
+      </c>
+      <c r="S24" s="1">
         <f t="shared" si="1"/>
-        <v>-0.10580567784731516</v>
-      </c>
-      <c r="S24" s="1">
+        <v>0.61120060016188527</v>
+      </c>
+      <c r="T24" s="1">
         <f t="shared" si="2"/>
-        <v>0.61120060016188527</v>
-      </c>
-      <c r="T24" s="1">
+        <v>7.9864659149347217</v>
+      </c>
+      <c r="U24" s="1">
         <f t="shared" si="3"/>
-        <v>7.9864659149347217</v>
-      </c>
-      <c r="U24" s="1">
+        <v>5.0043226008865453E-2</v>
+      </c>
+      <c r="V24" s="1">
         <f t="shared" si="4"/>
-        <v>5.0043226008865453E-2</v>
-      </c>
-      <c r="V24" s="1">
-        <f t="shared" si="5"/>
         <v>0.51869456338062681</v>
       </c>
     </row>
@@ -3416,27 +3405,27 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0578373047993208</v>
+      </c>
+      <c r="R25" s="1">
         <f t="shared" si="0"/>
-        <v>1.0578373047993208</v>
-      </c>
-      <c r="R25" s="1">
+        <v>-3.8858507886997836E-4</v>
+      </c>
+      <c r="S25" s="1">
         <f t="shared" si="1"/>
-        <v>-3.8858507886997836E-4</v>
-      </c>
-      <c r="S25" s="1">
+        <v>-0.86103899078041046</v>
+      </c>
+      <c r="T25" s="1">
         <f t="shared" si="2"/>
-        <v>-0.86103899078041046</v>
-      </c>
-      <c r="T25" s="1">
+        <v>1.077850442998227</v>
+      </c>
+      <c r="U25" s="1">
         <f t="shared" si="3"/>
-        <v>1.077850442998227</v>
-      </c>
-      <c r="U25" s="1">
+        <v>2.8356208458079985E-5</v>
+      </c>
+      <c r="V25" s="1">
         <f t="shared" si="4"/>
-        <v>2.8356208458079985E-5</v>
-      </c>
-      <c r="V25" s="1">
-        <f t="shared" si="5"/>
         <v>0.81915060744514812</v>
       </c>
     </row>
@@ -3472,27 +3461,27 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54919011707105359</v>
+      </c>
+      <c r="R26" s="1">
         <f t="shared" si="0"/>
-        <v>0.54919011707105359</v>
-      </c>
-      <c r="R26" s="1">
+        <v>-5.1752907034135808E-3</v>
+      </c>
+      <c r="S26" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1752907034135808E-3</v>
-      </c>
-      <c r="S26" s="1">
+        <v>-0.42415951671174595</v>
+      </c>
+      <c r="T26" s="1">
         <f t="shared" si="2"/>
-        <v>-0.42415951671174595</v>
-      </c>
-      <c r="T26" s="1">
+        <v>0.44974217695278207</v>
+      </c>
+      <c r="U26" s="1">
         <f t="shared" si="3"/>
-        <v>0.44974217695278207</v>
-      </c>
-      <c r="U26" s="1">
+        <v>8.9518541896884481E-4</v>
+      </c>
+      <c r="V26" s="1">
         <f t="shared" si="4"/>
-        <v>8.9518541896884481E-4</v>
-      </c>
-      <c r="V26" s="1">
-        <f t="shared" si="5"/>
         <v>0.31869282606990673</v>
       </c>
     </row>
@@ -3528,27 +3517,27 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1">
+        <f t="shared" si="5"/>
+        <v>6.7715633822281323E-6</v>
+      </c>
+      <c r="R27" s="1">
         <f t="shared" si="0"/>
-        <v>6.7715633822281323E-6</v>
-      </c>
-      <c r="R27" s="1">
+        <v>-4.682381280476986</v>
+      </c>
+      <c r="S27" s="1">
         <f t="shared" si="1"/>
-        <v>-4.682381280476986</v>
-      </c>
-      <c r="S27" s="1">
+        <v>-0.42415951671174595</v>
+      </c>
+      <c r="T27" s="1">
         <f t="shared" si="2"/>
-        <v>-0.42415951671174595</v>
-      </c>
-      <c r="T27" s="1">
+        <v>1.2811065858269459E-7</v>
+      </c>
+      <c r="U27" s="1">
         <f t="shared" si="3"/>
-        <v>1.2811065858269459E-7</v>
-      </c>
-      <c r="U27" s="1">
+        <v>7.8334973313925884</v>
+      </c>
+      <c r="V27" s="1">
         <f t="shared" si="4"/>
-        <v>7.8334973313925884</v>
-      </c>
-      <c r="V27" s="1">
-        <f t="shared" si="5"/>
         <v>0.31869282606990673</v>
       </c>
     </row>
@@ -3584,27 +3573,27 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.6500341342072424</v>
+      </c>
+      <c r="R28" s="1">
         <f t="shared" si="0"/>
-        <v>-5.6500341342072424</v>
-      </c>
-      <c r="R28" s="1">
+        <v>-3.8858507886997836E-4</v>
+      </c>
+      <c r="S28" s="1">
         <f t="shared" si="1"/>
-        <v>-3.8858507886997836E-4</v>
-      </c>
-      <c r="S28" s="1">
+        <v>-0.16760436696740622</v>
+      </c>
+      <c r="T28" s="1">
         <f t="shared" si="2"/>
-        <v>-0.16760436696740622</v>
-      </c>
-      <c r="T28" s="1">
+        <v>10.063168903898839</v>
+      </c>
+      <c r="U28" s="1">
         <f t="shared" si="3"/>
-        <v>10.063168903898839</v>
-      </c>
-      <c r="U28" s="1">
+        <v>2.8356208458079985E-5</v>
+      </c>
+      <c r="V28" s="1">
         <f t="shared" si="4"/>
-        <v>2.8356208458079985E-5</v>
-      </c>
-      <c r="V28" s="1">
-        <f t="shared" si="5"/>
         <v>9.2408894219867296E-2</v>
       </c>
     </row>
@@ -3640,27 +3629,27 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54919011707105359</v>
+      </c>
+      <c r="R29" s="1">
         <f t="shared" si="0"/>
-        <v>0.54919011707105359</v>
-      </c>
-      <c r="R29" s="1">
+        <v>1.0832922038181301</v>
+      </c>
+      <c r="S29" s="1">
         <f t="shared" si="1"/>
-        <v>1.0832922038181301</v>
-      </c>
-      <c r="S29" s="1">
+        <v>-3.4670404517008037E-3</v>
+      </c>
+      <c r="T29" s="1">
         <f t="shared" si="2"/>
-        <v>-3.4670404517008037E-3</v>
-      </c>
-      <c r="T29" s="1">
+        <v>0.44974217695278207</v>
+      </c>
+      <c r="U29" s="1">
         <f t="shared" si="3"/>
-        <v>0.44974217695278207</v>
-      </c>
-      <c r="U29" s="1">
+        <v>1.1125703714888888</v>
+      </c>
+      <c r="V29" s="1">
         <f t="shared" si="4"/>
-        <v>1.1125703714888888</v>
-      </c>
-      <c r="V29" s="1">
-        <f t="shared" si="5"/>
         <v>5.2474125755471704E-4</v>
       </c>
     </row>
@@ -3696,27 +3685,27 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.9377134621838058E-3</v>
+      </c>
+      <c r="R30" s="1">
         <f t="shared" si="0"/>
-        <v>-5.9377134621838058E-3</v>
-      </c>
-      <c r="R30" s="1">
+        <v>-0.18810589698537231</v>
+      </c>
+      <c r="S30" s="1">
         <f t="shared" si="1"/>
-        <v>-0.18810589698537231</v>
-      </c>
-      <c r="S30" s="1">
+        <v>-9.1948413716858413E-2</v>
+      </c>
+      <c r="T30" s="1">
         <f t="shared" si="2"/>
-        <v>-9.1948413716858413E-2</v>
-      </c>
-      <c r="T30" s="1">
+        <v>1.075207572881928E-3</v>
+      </c>
+      <c r="U30" s="1">
         <f t="shared" si="3"/>
-        <v>1.075207572881928E-3</v>
-      </c>
-      <c r="U30" s="1">
+        <v>0.1077795950294568</v>
+      </c>
+      <c r="V30" s="1">
         <f t="shared" si="4"/>
-        <v>0.1077795950294568</v>
-      </c>
-      <c r="V30" s="1">
-        <f t="shared" si="5"/>
         <v>4.1501040785717258E-2</v>
       </c>
     </row>
@@ -3752,27 +3741,27 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2437012615245127E-2</v>
+      </c>
+      <c r="R31" s="1">
         <f t="shared" si="0"/>
-        <v>3.2437012615245127E-2</v>
-      </c>
-      <c r="R31" s="1">
+        <v>-3.8858507886997836E-4</v>
+      </c>
+      <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>-3.8858507886997836E-4</v>
-      </c>
-      <c r="S31" s="1">
+        <v>1.5372988766706832E-2</v>
+      </c>
+      <c r="T31" s="1">
         <f t="shared" si="2"/>
-        <v>1.5372988766706832E-2</v>
-      </c>
-      <c r="T31" s="1">
+        <v>1.0344776996213336E-2</v>
+      </c>
+      <c r="U31" s="1">
         <f t="shared" si="3"/>
-        <v>1.0344776996213336E-2</v>
-      </c>
-      <c r="U31" s="1">
+        <v>2.8356208458079985E-5</v>
+      </c>
+      <c r="V31" s="1">
         <f t="shared" si="4"/>
-        <v>2.8356208458079985E-5</v>
-      </c>
-      <c r="V31" s="1">
-        <f t="shared" si="5"/>
         <v>3.822472882532511E-3</v>
       </c>
     </row>
@@ -3808,27 +3797,27 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R32" s="1">
         <f t="shared" si="0"/>
-        <v>1.6817167788680456E-3</v>
-      </c>
-      <c r="R32" s="1">
+        <v>7.7869267368170986E-2</v>
+      </c>
+      <c r="S32" s="1">
         <f t="shared" si="1"/>
-        <v>7.7869267368170986E-2</v>
-      </c>
-      <c r="S32" s="1">
+        <v>0.85372141827729686</v>
+      </c>
+      <c r="T32" s="1">
         <f t="shared" si="2"/>
-        <v>0.85372141827729686</v>
-      </c>
-      <c r="T32" s="1">
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U32" s="1">
         <f t="shared" si="3"/>
-        <v>1.9998794127079703E-4</v>
-      </c>
-      <c r="U32" s="1">
+        <v>3.325228174100265E-2</v>
+      </c>
+      <c r="V32" s="1">
         <f t="shared" si="4"/>
-        <v>3.325228174100265E-2</v>
-      </c>
-      <c r="V32" s="1">
-        <f t="shared" si="5"/>
         <v>0.80988166977116494</v>
       </c>
     </row>
@@ -3864,27 +3853,27 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.9377134621838058E-3</v>
+      </c>
+      <c r="R33" s="1">
         <f t="shared" si="0"/>
-        <v>-5.9377134621838058E-3</v>
-      </c>
-      <c r="R33" s="1">
+        <v>-2.0340374706335578E-2</v>
+      </c>
+      <c r="S33" s="1">
         <f t="shared" si="1"/>
-        <v>-2.0340374706335578E-2</v>
-      </c>
-      <c r="S33" s="1">
+        <v>1.1513631966516615E-4</v>
+      </c>
+      <c r="T33" s="1">
         <f t="shared" si="2"/>
-        <v>1.1513631966516615E-4</v>
-      </c>
-      <c r="T33" s="1">
+        <v>1.075207572881928E-3</v>
+      </c>
+      <c r="U33" s="1">
         <f t="shared" si="3"/>
-        <v>1.075207572881928E-3</v>
-      </c>
-      <c r="U33" s="1">
+        <v>5.5523725549727143E-3</v>
+      </c>
+      <c r="V33" s="1">
         <f t="shared" si="4"/>
-        <v>5.5523725549727143E-3</v>
-      </c>
-      <c r="V33" s="1">
-        <f t="shared" si="5"/>
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
@@ -3920,27 +3909,27 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.5341657947209202E-2</v>
+      </c>
+      <c r="R34" s="1">
         <f t="shared" si="0"/>
-        <v>-5.5341657947209202E-2</v>
-      </c>
-      <c r="R34" s="1">
+        <v>-5.1883837087636303E-2</v>
+      </c>
+      <c r="S34" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1883837087636303E-2</v>
-      </c>
-      <c r="S34" s="1">
+        <v>-1.5879750459005533E-2</v>
+      </c>
+      <c r="T34" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5879750459005533E-2</v>
-      </c>
-      <c r="T34" s="1">
+        <v>2.1089658839341854E-2</v>
+      </c>
+      <c r="U34" s="1">
         <f t="shared" si="3"/>
-        <v>2.1089658839341854E-2</v>
-      </c>
-      <c r="U34" s="1">
+        <v>1.935126896782121E-2</v>
+      </c>
+      <c r="V34" s="1">
         <f t="shared" si="4"/>
-        <v>1.935126896782121E-2</v>
-      </c>
-      <c r="V34" s="1">
-        <f t="shared" si="5"/>
         <v>3.991396736993294E-3</v>
       </c>
     </row>
@@ -3976,27 +3965,27 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6817167788680456E-3</v>
+      </c>
+      <c r="R35" s="1">
         <f t="shared" si="0"/>
-        <v>1.6817167788680456E-3</v>
-      </c>
-      <c r="R35" s="1">
+        <v>-3.8858507886997836E-4</v>
+      </c>
+      <c r="S35" s="1">
         <f t="shared" si="1"/>
-        <v>-3.8858507886997836E-4</v>
-      </c>
-      <c r="S35" s="1">
+        <v>1.1513631966516615E-4</v>
+      </c>
+      <c r="T35" s="1">
         <f t="shared" si="2"/>
-        <v>1.1513631966516615E-4</v>
-      </c>
-      <c r="T35" s="1">
+        <v>1.9998794127079703E-4</v>
+      </c>
+      <c r="U35" s="1">
         <f t="shared" si="3"/>
-        <v>1.9998794127079703E-4</v>
-      </c>
-      <c r="U35" s="1">
+        <v>2.8356208458079985E-5</v>
+      </c>
+      <c r="V35" s="1">
         <f t="shared" si="4"/>
-        <v>2.8356208458079985E-5</v>
-      </c>
-      <c r="V35" s="1">
-        <f t="shared" si="5"/>
         <v>5.6012263620890557E-6</v>
       </c>
     </row>
@@ -4032,27 +4021,27 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.330385169683852E-4</v>
+      </c>
+      <c r="R36" s="1">
         <f t="shared" si="0"/>
-        <v>-5.330385169683852E-4</v>
-      </c>
-      <c r="R36" s="1">
+        <v>-5.1883837087636303E-2</v>
+      </c>
+      <c r="S36" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1883837087636303E-2</v>
-      </c>
-      <c r="S36" s="1">
+        <v>-4.3373541547391224E-2</v>
+      </c>
+      <c r="T36" s="1">
         <f t="shared" si="2"/>
-        <v>-4.3373541547391224E-2</v>
-      </c>
-      <c r="T36" s="1">
+        <v>4.3219339213652644E-5</v>
+      </c>
+      <c r="U36" s="1">
         <f t="shared" si="3"/>
-        <v>4.3219339213652644E-5</v>
-      </c>
-      <c r="U36" s="1">
+        <v>1.935126896782121E-2</v>
+      </c>
+      <c r="V36" s="1">
         <f t="shared" si="4"/>
-        <v>1.935126896782121E-2</v>
-      </c>
-      <c r="V36" s="1">
-        <f t="shared" si="5"/>
         <v>1.5239352435569908E-2</v>
       </c>
     </row>
@@ -4088,27 +4077,27 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.31593406116123324</v>
+      </c>
+      <c r="R37" s="1">
         <f t="shared" si="0"/>
-        <v>-0.31593406116123324</v>
-      </c>
-      <c r="R37" s="1">
+        <v>-5.1883837087636303E-2</v>
+      </c>
+      <c r="S37" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1883837087636303E-2</v>
-      </c>
-      <c r="S37" s="1">
+        <v>-1.3541152547727153E-4</v>
+      </c>
+      <c r="T37" s="1">
         <f t="shared" si="2"/>
-        <v>-1.3541152547727153E-4</v>
-      </c>
-      <c r="T37" s="1">
+        <v>0.21517671192602889</v>
+      </c>
+      <c r="U37" s="1">
         <f t="shared" si="3"/>
-        <v>0.21517671192602889</v>
-      </c>
-      <c r="U37" s="1">
+        <v>1.935126896782121E-2</v>
+      </c>
+      <c r="V37" s="1">
         <f t="shared" si="4"/>
-        <v>1.935126896782121E-2</v>
-      </c>
-      <c r="V37" s="1">
-        <f t="shared" si="5"/>
         <v>6.9535648218059154E-6</v>
       </c>
     </row>
@@ -4144,27 +4133,27 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1">
+        <f t="shared" si="5"/>
+        <v>6.7715633822281323E-6</v>
+      </c>
+      <c r="R38" s="1">
         <f t="shared" si="0"/>
-        <v>6.7715633822281323E-6</v>
-      </c>
-      <c r="R38" s="1">
+        <v>-3.8858507886997836E-4</v>
+      </c>
+      <c r="S38" s="1">
         <f t="shared" si="1"/>
-        <v>-3.8858507886997836E-4</v>
-      </c>
-      <c r="S38" s="1">
+        <v>-0.27634140129903489</v>
+      </c>
+      <c r="T38" s="1">
         <f t="shared" si="2"/>
-        <v>-0.27634140129903489</v>
-      </c>
-      <c r="T38" s="1">
+        <v>1.2811065858269459E-7</v>
+      </c>
+      <c r="U38" s="1">
         <f t="shared" si="3"/>
-        <v>1.2811065858269459E-7</v>
-      </c>
-      <c r="U38" s="1">
+        <v>2.8356208458079985E-5</v>
+      </c>
+      <c r="V38" s="1">
         <f t="shared" si="4"/>
-        <v>2.8356208458079985E-5</v>
-      </c>
-      <c r="V38" s="1">
-        <f t="shared" si="5"/>
         <v>0.17999534517045251</v>
       </c>
     </row>
@@ -4200,27 +4189,27 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.19620506189169409</v>
+      </c>
+      <c r="R39" s="1">
         <f t="shared" si="0"/>
-        <v>-0.19620506189169409</v>
-      </c>
-      <c r="R39" s="1">
+        <v>-5.1883837087636303E-2</v>
+      </c>
+      <c r="S39" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1883837087636303E-2</v>
-      </c>
-      <c r="S39" s="1">
+        <v>-9.1948413716858413E-2</v>
+      </c>
+      <c r="T39" s="1">
         <f t="shared" si="2"/>
-        <v>-9.1948413716858413E-2</v>
-      </c>
-      <c r="T39" s="1">
+        <v>0.11401104947760594</v>
+      </c>
+      <c r="U39" s="1">
         <f t="shared" si="3"/>
-        <v>0.11401104947760594</v>
-      </c>
-      <c r="U39" s="1">
+        <v>1.935126896782121E-2</v>
+      </c>
+      <c r="V39" s="1">
         <f t="shared" si="4"/>
-        <v>1.935126896782121E-2</v>
-      </c>
-      <c r="V39" s="1">
-        <f t="shared" si="5"/>
         <v>4.1501040785717258E-2</v>
       </c>
     </row>
@@ -4283,17 +4272,17 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
       <c r="E43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="6" t="s">
         <v>26</v>
       </c>
@@ -4303,43 +4292,43 @@
       <c r="F44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
     </row>
     <row r="45" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12">
-        <f>SUMPRODUCT(K3:K19,H3:H19)/K23</f>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="33">
+        <f>SUMPRODUCT(K3:K19,H3:H19)/K40</f>
         <v>8.1810810810810803</v>
       </c>
-      <c r="E45" s="12">
-        <f>SUMPRODUCT(L3:L19,I3:I19)/L23</f>
+      <c r="E45" s="33">
+        <f>SUMPRODUCT(L3:L19,I3:I19)/L40</f>
         <v>7.9729729729729746</v>
       </c>
-      <c r="F45" s="12">
-        <f>SUMPRODUCT(M3:M22,J3:J22)/M23</f>
+      <c r="F45" s="33">
+        <f>SUMPRODUCT(M3:M22,J3:J22)/M40</f>
         <v>8.0513513513513519</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
       <c r="L45" s="1"/>
       <c r="M45" s="6" t="s">
         <v>26</v>
@@ -4352,680 +4341,680 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21"/>
-      <c r="L46" s="15" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="L46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M46" s="15">
+      <c r="M46" s="9">
         <v>8.1810810810810821</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N46" s="9">
         <v>7.9729729729729746</v>
       </c>
-      <c r="O46" s="15">
+      <c r="O46" s="9">
         <v>8.0513513513513519</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12">
-        <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K23</f>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="33">
+        <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K40</f>
         <v>0.43937180423666905</v>
       </c>
-      <c r="E47" s="12">
-        <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/L23</f>
+      <c r="E47" s="33">
+        <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/L40</f>
         <v>0.30575602629656695</v>
       </c>
-      <c r="F47" s="12">
-        <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/M23</f>
+      <c r="F47" s="33">
+        <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/M40</f>
         <v>0.2770927684441199</v>
       </c>
-      <c r="G47" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="21"/>
-      <c r="L47" s="15" t="s">
+      <c r="G47" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="15">
+      <c r="M47" s="9">
         <v>0.11047521142730382</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N47" s="9">
         <v>9.2158683544647124E-2</v>
       </c>
-      <c r="O47" s="15">
+      <c r="O47" s="9">
         <v>8.7732669773978686E-2</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21"/>
-      <c r="L48" s="15" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
+      <c r="L48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="15">
+      <c r="M48" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N48" s="15">
+      <c r="N48" s="9">
         <v>7.9</v>
       </c>
-      <c r="O48" s="15">
+      <c r="O48" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="23">
-        <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K23-1)</f>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="11">
+        <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K40-1)</f>
         <v>0.45157657657657652</v>
       </c>
-      <c r="E49" s="23">
-        <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/(L23-1)</f>
+      <c r="E49" s="11">
+        <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/(L40-1)</f>
         <v>0.31424924924924935</v>
       </c>
-      <c r="F49" s="23">
-        <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/(M23-1)</f>
+      <c r="F49" s="11">
+        <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/(M40-1)</f>
         <v>0.28478978978978986</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="21"/>
-      <c r="L49" s="15" t="s">
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
+      <c r="L49" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M49" s="15">
+      <c r="M49" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N49" s="9">
         <v>7.9</v>
       </c>
-      <c r="O49" s="15">
+      <c r="O49" s="9">
         <v>8.5</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="22">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="10">
         <f>SQRT(D47)</f>
         <v>0.6628512685638227</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="10">
         <f>SQRT(E47)</f>
         <v>0.55295210126788286</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="10">
         <f>SQRT(F47)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="21"/>
-      <c r="L50" s="15" t="s">
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
+      <c r="L50" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M50" s="15">
+      <c r="M50" s="9">
         <v>0.67199447659677736</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N50" s="9">
         <v>0.56057938710699062</v>
       </c>
-      <c r="O50" s="15">
+      <c r="O50" s="9">
         <v>0.53365699638418473</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="33">
         <f>D50/D45</f>
         <v>8.1022454366902683E-2</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="33">
         <f>E50/E45</f>
         <v>6.935331439631072E-2</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="33">
         <f>F50/F45</f>
         <v>6.5379834474062676E-2</v>
       </c>
-      <c r="G51" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="21"/>
-      <c r="L51" s="15" t="s">
+      <c r="G51" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="28"/>
+      <c r="L51" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M51" s="15">
+      <c r="M51" s="9">
         <v>0.45157657657657668</v>
       </c>
-      <c r="N51" s="15">
+      <c r="N51" s="9">
         <v>0.31424924924924924</v>
       </c>
-      <c r="O51" s="15">
+      <c r="O51" s="9">
         <v>0.2847897897897898</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-      <c r="L52" s="15" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
+      <c r="L52" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M52" s="15">
+      <c r="M52" s="9">
         <v>1.8723928604691702</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N52" s="9">
         <v>1.1105015755698338</v>
       </c>
-      <c r="O52" s="15">
+      <c r="O52" s="9">
         <v>-0.70511515342786346</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21"/>
-      <c r="L53" s="15" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="28"/>
+      <c r="L53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M53" s="15">
+      <c r="M53" s="9">
         <v>-1.315864887856351</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N53" s="9">
         <v>-0.3187190523834238</v>
       </c>
-      <c r="O53" s="15">
+      <c r="O53" s="9">
         <v>0.14849878333758657</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="33">
         <f>Q40/(K40*D50^3)</f>
         <v>-1.2619066541331863</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="33">
         <f>R40/(L40*E50^3)</f>
         <v>-0.3056496884394217</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="33">
         <f>S40/(M40*F50^3)</f>
         <v>0.14240945598119886</v>
       </c>
-      <c r="G54" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="21"/>
-      <c r="L54" s="15" t="s">
+      <c r="G54" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28"/>
+      <c r="L54" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M54" s="15">
+      <c r="M54" s="9">
         <v>2.7999999999999989</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N54" s="9">
         <v>2.7</v>
       </c>
-      <c r="O54" s="15">
+      <c r="O54" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="21"/>
-      <c r="L55" s="15" t="s">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="28"/>
+      <c r="L55" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M55" s="15">
+      <c r="M55" s="9">
         <v>6.4</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N55" s="9">
         <v>6.3</v>
       </c>
-      <c r="O55" s="15">
+      <c r="O55" s="9">
         <v>7.1</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="21"/>
-      <c r="L56" s="15" t="s">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="28"/>
+      <c r="L56" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M56" s="15">
+      <c r="M56" s="9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N56" s="9">
         <v>9</v>
       </c>
-      <c r="O56" s="15">
+      <c r="O56" s="9">
         <v>9.1</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
-      <c r="L57" s="15" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="28"/>
+      <c r="L57" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M57" s="15">
+      <c r="M57" s="9">
         <v>302.70000000000005</v>
       </c>
-      <c r="N57" s="15">
+      <c r="N57" s="9">
         <v>295.00000000000006</v>
       </c>
-      <c r="O57" s="15">
+      <c r="O57" s="9">
         <v>297.90000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="33">
         <f>T40/(K40*D47^2)-3</f>
         <v>1.4708680584490494</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="33">
         <f>U40/(L40*E47^2)-3</f>
         <v>0.80811175067843388</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="33">
         <f>V40/(M40*F47^2)-3</f>
         <v>-0.77126245071575994</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="28"/>
+      <c r="L58" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M58" s="9">
+        <v>37</v>
+      </c>
+      <c r="N58" s="9">
+        <v>37</v>
+      </c>
+      <c r="O58" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="28"/>
+    </row>
+    <row r="60" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="28"/>
+      <c r="L60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="21"/>
-      <c r="L58" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M58" s="15">
-        <v>37</v>
-      </c>
-      <c r="N58" s="15">
-        <v>37</v>
-      </c>
-      <c r="O58" s="15">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="21"/>
-    </row>
-    <row r="60" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="21"/>
-      <c r="L60" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="21"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="28"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="21"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="28"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="21"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="28"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="21"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="28"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="33">
         <f>H12</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="33">
         <f>I11</f>
         <v>7.9</v>
       </c>
-      <c r="F65" s="12" t="str">
+      <c r="F65" s="33" t="str">
         <f>J11&amp;", "&amp;J13&amp;", "&amp;J17</f>
         <v>7.9, 8.1, 8.5</v>
       </c>
-      <c r="G65" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="21"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
+      <c r="G65" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="28"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="21"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="33"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="28"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="21"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="21"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="28"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="21"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="28"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="21"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="28"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="21"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="28"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="22">
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="10">
         <f>E21</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E71" s="10">
         <f>F21</f>
         <v>7.9</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="10">
         <f>G21</f>
         <v>8</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="21"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="28"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="H3:H39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -5033,18 +5022,31 @@
     <sortCondition ref="G3"/>
   </sortState>
   <mergeCells count="57">
-    <mergeCell ref="L60:O66"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="G45:J46"/>
-    <mergeCell ref="G47:J50"/>
-    <mergeCell ref="G51:J53"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G54:J57"/>
-    <mergeCell ref="G58:J64"/>
-    <mergeCell ref="G65:J70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="A65:C70"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="G71:J71"/>
     <mergeCell ref="A51:C53"/>
     <mergeCell ref="A54:C57"/>
@@ -5061,35 +5063,22 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="L60:O66"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="G47:J50"/>
+    <mergeCell ref="G51:J53"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G54:J57"/>
+    <mergeCell ref="G58:J64"/>
+    <mergeCell ref="G65:J70"/>
     <mergeCell ref="A49:C49"/>
-    <mergeCell ref="T1:T2"/>
     <mergeCell ref="A47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="A65:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/САВР/Лабораторные/lab2/Lab2_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab2/Lab2_Var№5_Кендысь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C142DD4-D0A7-4F9B-8D28-BD2FA97E79C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3303ADEB-0637-4B73-8BFB-4762EDE532FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>Год</t>
   </si>
@@ -1043,6 +1043,9 @@
   </si>
   <si>
     <t>Для первых двух рядов эмпирические кривые распределений приближены к нормальному. Третий же ряд хоть и не считается приближенно нормальным, но значение его эксцессы относительно близко к порогу -0.5. Для первого и второго ряда распределение имеет острый пик и является высоковершинным, а для третьего ряда распределение имеет плосковершинную форму.</t>
+  </si>
+  <si>
+    <t>Значение медианы близко к среднему для всех рядов.</t>
   </si>
 </sst>
 </file>
@@ -1297,6 +1300,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1324,41 +1357,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N82" sqref="N82"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,76 +1668,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="29" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="25" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1753,12 +1756,12 @@
       <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1893,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q3:Q39" si="5">(B4-$D$45)^3</f>
+        <f t="shared" ref="Q4:Q39" si="5">(B4-$D$45)^3</f>
         <v>3.2437012615245127E-2</v>
       </c>
       <c r="R4" s="1">
@@ -4272,17 +4275,17 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
       <c r="E43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="6" t="s">
         <v>26</v>
       </c>
@@ -4292,43 +4295,43 @@
       <c r="F44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="25" t="s">
+      <c r="M44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
     </row>
     <row r="45" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="33">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14">
         <f>SUMPRODUCT(K3:K19,H3:H19)/K40</f>
         <v>8.1810810810810803</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E45" s="14">
         <f>SUMPRODUCT(L3:L19,I3:I19)/L40</f>
         <v>7.9729729729729746</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="14">
         <f>SUMPRODUCT(M3:M22,J3:J22)/M40</f>
         <v>8.0513513513513519</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="28"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
       <c r="L45" s="1"/>
       <c r="M45" s="6" t="s">
         <v>26</v>
@@ -4341,16 +4344,16 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="28"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
       <c r="L46" s="9" t="s">
         <v>39</v>
       </c>
@@ -4365,29 +4368,29 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="33">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K40</f>
         <v>0.43937180423666905</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="14">
         <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/L40</f>
         <v>0.30575602629656695</v>
       </c>
-      <c r="F47" s="33">
+      <c r="F47" s="14">
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/M40</f>
         <v>0.2770927684441199</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="28"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="18"/>
       <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
@@ -4402,16 +4405,16 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="18"/>
       <c r="L48" s="9" t="s">
         <v>41</v>
       </c>
@@ -4426,11 +4429,11 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="11">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K40-1)</f>
         <v>0.45157657657657652</v>
@@ -4443,10 +4446,10 @@
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/(M40-1)</f>
         <v>0.28478978978978986</v>
       </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
       <c r="L49" s="9" t="s">
         <v>42</v>
       </c>
@@ -4461,11 +4464,11 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="10">
         <f>SQRT(D47)</f>
         <v>0.6628512685638227</v>
@@ -4478,10 +4481,10 @@
         <f>SQRT(F47)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="28"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
       <c r="L50" s="9" t="s">
         <v>43</v>
       </c>
@@ -4496,29 +4499,29 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="33">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14">
         <f>D50/D45</f>
         <v>8.1022454366902683E-2</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="14">
         <f>E50/E45</f>
         <v>6.935331439631072E-2</v>
       </c>
-      <c r="F51" s="33">
+      <c r="F51" s="14">
         <f>F50/F45</f>
         <v>6.5379834474062676E-2</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="28"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
       <c r="L51" s="9" t="s">
         <v>44</v>
       </c>
@@ -4533,16 +4536,16 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="28"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="18"/>
       <c r="L52" s="9" t="s">
         <v>45</v>
       </c>
@@ -4557,16 +4560,16 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="28"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="18"/>
       <c r="L53" s="9" t="s">
         <v>46</v>
       </c>
@@ -4581,29 +4584,29 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="33">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14">
         <f>Q40/(K40*D50^3)</f>
         <v>-1.2619066541331863</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E54" s="14">
         <f>R40/(L40*E50^3)</f>
         <v>-0.3056496884394217</v>
       </c>
-      <c r="F54" s="33">
+      <c r="F54" s="14">
         <f>S40/(M40*F50^3)</f>
         <v>0.14240945598119886</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="28"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="18"/>
       <c r="L54" s="9" t="s">
         <v>47</v>
       </c>
@@ -4618,16 +4621,16 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="28"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18"/>
       <c r="L55" s="9" t="s">
         <v>48</v>
       </c>
@@ -4642,16 +4645,16 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="28"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="18"/>
       <c r="L56" s="9" t="s">
         <v>49</v>
       </c>
@@ -4666,16 +4669,16 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="28"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="18"/>
       <c r="L57" s="9" t="s">
         <v>50</v>
       </c>
@@ -4690,29 +4693,29 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="33">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14">
         <f>T40/(K40*D47^2)-3</f>
         <v>1.4708680584490494</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="14">
         <f>U40/(L40*E47^2)-3</f>
         <v>0.80811175067843388</v>
       </c>
-      <c r="F58" s="33">
+      <c r="F58" s="14">
         <f>V40/(M40*F47^2)-3</f>
         <v>-0.77126245071575994</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="28"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="18"/>
       <c r="L58" s="9" t="s">
         <v>51</v>
       </c>
@@ -4727,218 +4730,218 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="28"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="18"/>
     </row>
     <row r="60" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="28"/>
-      <c r="L60" s="13" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="18"/>
+      <c r="L60" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="15"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="25"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="28"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="18"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="18"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="28"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="28"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="18"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="18"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="28"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="28"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="18"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="18"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="28"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="28"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="18"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="18"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="28"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="33">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14">
         <f>H12</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E65" s="14">
         <f>I11</f>
         <v>7.9</v>
       </c>
-      <c r="F65" s="33" t="str">
+      <c r="F65" s="14" t="str">
         <f>J11&amp;", "&amp;J13&amp;", "&amp;J17</f>
         <v>7.9, 8.1, 8.5</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="28"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="18"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="18"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="28"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="28"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="21"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="18"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="31"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="28"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="18"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="28"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="18"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="28"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="18"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="28"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="18"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
       <c r="D71" s="10">
         <f>E21</f>
         <v>8.3000000000000007</v>
@@ -4951,10 +4954,12 @@
         <f>G21</f>
         <v>8</v>
       </c>
-      <c r="G71" s="26"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="28"/>
+      <c r="G71" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="18"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F73" s="8"/>
@@ -5022,31 +5027,22 @@
     <sortCondition ref="G3"/>
   </sortState>
   <mergeCells count="57">
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="A65:C70"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="L60:O66"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="G47:J50"/>
+    <mergeCell ref="G51:J53"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G54:J57"/>
+    <mergeCell ref="G58:J64"/>
+    <mergeCell ref="G65:J70"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
     <mergeCell ref="G71:J71"/>
     <mergeCell ref="A51:C53"/>
     <mergeCell ref="A54:C57"/>
@@ -5063,22 +5059,31 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="L60:O66"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="G45:J46"/>
-    <mergeCell ref="G47:J50"/>
-    <mergeCell ref="G51:J53"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G54:J57"/>
-    <mergeCell ref="G58:J64"/>
-    <mergeCell ref="G65:J70"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="A65:C70"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
